--- a/trunk/inserts con tabla.xlsx
+++ b/trunk/inserts con tabla.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumento" sheetId="1" r:id="rId1"/>
     <sheet name="Voz" sheetId="2" r:id="rId2"/>
     <sheet name="Lugar" sheetId="3" r:id="rId3"/>
     <sheet name="Nacionalidad" sheetId="4" r:id="rId4"/>
+    <sheet name="Idioma" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lugar!$E$1:$E$243</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="417">
   <si>
     <t>idInstrumento</t>
   </si>
@@ -1152,9 +1153,6 @@
     <t>insert into LUGAR values (</t>
   </si>
   <si>
-    <t>con</t>
-  </si>
-  <si>
     <t>gran londres</t>
   </si>
   <si>
@@ -1252,6 +1250,33 @@
   </si>
   <si>
     <t>valencia</t>
+  </si>
+  <si>
+    <t>bengali</t>
+  </si>
+  <si>
+    <t>idIdioma</t>
+  </si>
+  <si>
+    <t>nombreIdioma</t>
+  </si>
+  <si>
+    <t>insert into IDIOMA values (</t>
+  </si>
+  <si>
+    <t>seqIdioma.nextval</t>
+  </si>
+  <si>
+    <t>seqNacionalidad.nextval</t>
+  </si>
+  <si>
+    <t>seqLugar.nextval</t>
+  </si>
+  <si>
+    <t>seqVoz.nextval</t>
+  </si>
+  <si>
+    <t>seqInstrumento.nextval</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1390,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1476,7 +1513,7 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="73">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1507,6 +1544,12 @@
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1537,9 +1580,15 @@
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1569,6 +1618,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1822,48 +1874,59 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D29" totalsRowShown="0">
   <autoFilter ref="C3:D29"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="idInstrumento" dataDxfId="25"/>
-    <tableColumn id="2" name="nombreInstrumento" dataDxfId="24"/>
+    <tableColumn id="1" name="idInstrumento" dataDxfId="26"/>
+    <tableColumn id="2" name="nombreInstrumento" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="D3:G22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idVoz" dataDxfId="19"/>
-    <tableColumn id="2" name="nombreVoz" dataDxfId="18"/>
-    <tableColumn id="3" name="descripcionVoz" dataDxfId="17"/>
-    <tableColumn id="4" name="fkVoz" dataDxfId="16"/>
+    <tableColumn id="1" name="idVoz" dataDxfId="20"/>
+    <tableColumn id="2" name="nombreVoz" dataDxfId="19"/>
+    <tableColumn id="3" name="descripcionVoz" dataDxfId="18"/>
+    <tableColumn id="4" name="fkVoz" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="D3:H247"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="idLugar" dataDxfId="13"/>
-    <tableColumn id="2" name="nombreLugar" dataDxfId="12"/>
-    <tableColumn id="3" name="tipoLugar" dataDxfId="11"/>
-    <tableColumn id="4" name="banderaLugar" dataDxfId="10"/>
-    <tableColumn id="5" name="fkLugar" dataDxfId="9"/>
+    <tableColumn id="1" name="idLugar" dataDxfId="14"/>
+    <tableColumn id="2" name="nombreLugar" dataDxfId="13"/>
+    <tableColumn id="3" name="tipoLugar" dataDxfId="12"/>
+    <tableColumn id="4" name="banderaLugar" dataDxfId="11"/>
+    <tableColumn id="5" name="fkLugar" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C3:F129"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idNacionalidad" dataDxfId="6"/>
-    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="5"/>
-    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="4"/>
-    <tableColumn id="4" name="fkPais" dataDxfId="3"/>
+    <tableColumn id="1" name="idNacionalidad" dataDxfId="7"/>
+    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="6"/>
+    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="5"/>
+    <tableColumn id="4" name="fkPais" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:D15" totalsRowShown="0">
+  <autoFilter ref="C3:D15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="idIdioma" dataDxfId="3"/>
+    <tableColumn id="2" name="nombreIdioma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2193,17 +2256,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" customWidth="1"/>
@@ -2233,15 +2296,14 @@
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G29" si="0">(C4)</f>
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I29" si="1">CONCATENATE(B3,D4,B3)</f>
+        <f t="shared" ref="I4:I29" si="0">CONCATENATE(B3,D4,B3)</f>
         <v>'arpa'</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2261,15 +2323,14 @@
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'bombo'</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -2289,15 +2350,14 @@
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'chelo'</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -2317,15 +2377,14 @@
       <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'clarinete'</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -2345,15 +2404,14 @@
       <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'clarinete bajo'</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -2373,15 +2431,14 @@
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'clavecin'</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -2401,15 +2458,14 @@
       <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'contrabajo'</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -2429,15 +2485,14 @@
       <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'contrafagot'</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -2457,15 +2512,14 @@
       <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'corno'</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -2485,15 +2539,14 @@
       <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'corno ingles'</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -2513,15 +2566,14 @@
       <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'fagot'</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -2541,15 +2593,14 @@
       <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'flauta'</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -2569,15 +2620,14 @@
       <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'flautin'</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -2597,15 +2647,14 @@
       <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'guitarra'</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -2625,15 +2674,14 @@
       <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'obo'</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -2653,15 +2701,14 @@
       <c r="F19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'organo'</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -2681,15 +2728,14 @@
       <c r="F20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'piano'</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -2709,15 +2755,14 @@
       <c r="F21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'plato'</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2737,15 +2782,14 @@
       <c r="F22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'timbal'</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -2765,15 +2809,14 @@
       <c r="F23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'triangulo'</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -2793,15 +2836,14 @@
       <c r="F24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'trompa'</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -2821,15 +2863,14 @@
       <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'trompeta'</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -2849,15 +2890,14 @@
       <c r="F26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'trompon'</v>
       </c>
       <c r="J26" s="5" t="s">
@@ -2877,15 +2917,14 @@
       <c r="F27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'tuba'</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -2905,15 +2944,14 @@
       <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'violin'</v>
       </c>
       <c r="J28" s="5" t="s">
@@ -2933,15 +2971,14 @@
       <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="1"/>
         <v>'violonchelo'</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -4243,6 +4280,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4256,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O242"/>
+  <dimension ref="A2:Q242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J4" sqref="J4:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4271,20 +4309,22 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:17">
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:17">
       <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
@@ -4302,7 +4342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:17">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
@@ -4322,29 +4362,35 @@
       <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="str">
         <f>CONCATENATE(B4,Tabla6[[#This Row],[nombreVoz]],B4)</f>
         <v>'soprano'</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="str">
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="str">
         <f>CONCATENATE(B4,Tabla6[[#This Row],[descripcionVoz]],B4)</f>
         <v>'aguda'</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="str">
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="Q4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
@@ -4364,28 +4410,34 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="12" t="str">
         <f>CONCATENATE(B5,Tabla6[[#This Row],[nombreVoz]],B5)</f>
         <v>'mezzosoprano'</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="str">
+      <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="Q5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -4405,29 +4457,35 @@
       <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="12" t="str">
         <f>CONCATENATE(B6,Tabla6[[#This Row],[nombreVoz]],B6)</f>
         <v>'contralto'</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="str">
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="str">
         <f>CONCATENATE(B6,Tabla6[[#This Row],[descripcionVoz]],B6)</f>
         <v>'grave'</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="str">
+      <c r="O6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="Q6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
@@ -4447,29 +4505,35 @@
       <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="12" t="str">
         <f>CONCATENATE(B7,Tabla6[[#This Row],[nombreVoz]],B7)</f>
         <v>'tenor'</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="str">
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="str">
         <f>CONCATENATE(B7,Tabla6[[#This Row],[descripcionVoz]],B7)</f>
         <v>'aguda'</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="str">
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="Q7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
@@ -4489,28 +4553,34 @@
       <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="12" t="str">
         <f>CONCATENATE(B8,Tabla6[[#This Row],[nombreVoz]],B8)</f>
         <v>'baritono'</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="str">
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="Q8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
@@ -4530,29 +4600,35 @@
       <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="12" t="str">
         <f>CONCATENATE(B9,Tabla6[[#This Row],[nombreVoz]],B9)</f>
         <v>'bajo'</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="str">
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="str">
         <f>CONCATENATE(B9,Tabla6[[#This Row],[descripcionVoz]],B9)</f>
         <v>'grave'</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="str">
+      <c r="O9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="str">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>null</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="Q9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -4572,29 +4648,35 @@
       <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="12" t="str">
         <f>CONCATENATE(B10,Tabla6[[#This Row],[nombreVoz]],B10)</f>
         <v>'ligera'</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="1" t="str">
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="O10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>1</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="Q10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -4614,29 +4696,35 @@
       <c r="I11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="12" t="str">
         <f>CONCATENATE(B11,Tabla6[[#This Row],[nombreVoz]],B11)</f>
         <v>'lirica'</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="str">
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="O11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>1</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="Q11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
@@ -4656,29 +4744,35 @@
       <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="12" t="str">
         <f>CONCATENATE(B12,Tabla6[[#This Row],[nombreVoz]],B12)</f>
         <v>'dramatica'</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="str">
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>1</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="Q12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
@@ -4698,29 +4792,35 @@
       <c r="I13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="12" t="str">
         <f>CONCATENATE(B13,Tabla6[[#This Row],[nombreVoz]],B13)</f>
         <v>'mezzo ligera'</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="str">
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="O13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>2</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="Q13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
@@ -4740,29 +4840,35 @@
       <c r="I14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="12" t="str">
         <f>CONCATENATE(B14,Tabla6[[#This Row],[nombreVoz]],B14)</f>
         <v>'mezzo dramatica'</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1" t="str">
+      <c r="M14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="O14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>2</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="Q14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -4782,29 +4888,35 @@
       <c r="I15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="12" t="str">
         <f>CONCATENATE(B15,Tabla6[[#This Row],[nombreVoz]],B15)</f>
         <v>'ligero'</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="str">
+      <c r="M15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="O15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>4</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="Q15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -4824,29 +4936,35 @@
       <c r="I16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="12" t="str">
         <f>CONCATENATE(B16,Tabla6[[#This Row],[nombreVoz]],B16)</f>
         <v>'lirico'</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1" t="str">
+      <c r="M16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="O16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>4</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="Q16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
@@ -4866,29 +4984,35 @@
       <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="12" t="str">
         <f>CONCATENATE(B17,Tabla6[[#This Row],[nombreVoz]],B17)</f>
         <v>'dramatico'</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="1" t="str">
+      <c r="M17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="O17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>4</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="Q17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -4908,29 +5032,35 @@
       <c r="I18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="12" t="str">
         <f>CONCATENATE(B18,Tabla6[[#This Row],[nombreVoz]],B18)</f>
         <v>'ligero'</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="str">
+      <c r="M18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="O18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>5</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="Q18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
@@ -4950,29 +5080,35 @@
       <c r="I19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="12" t="str">
+      <c r="J19" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="12" t="str">
         <f>CONCATENATE(B19,Tabla6[[#This Row],[nombreVoz]],B19)</f>
         <v>'cantante'</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="1" t="str">
+      <c r="M19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="O19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>5</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="Q19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -4992,29 +5128,35 @@
       <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="12" t="str">
         <f>CONCATENATE(B20,Tabla6[[#This Row],[nombreVoz]],B20)</f>
         <v>'baritono-bajo'</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="1" t="str">
+      <c r="M20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="O20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>5</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="Q20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
@@ -5034,29 +5176,35 @@
       <c r="I21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="12" t="str">
         <f>CONCATENATE(B21,Tabla6[[#This Row],[nombreVoz]],B21)</f>
         <v>'cantante'</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="1" t="str">
+      <c r="M21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="O21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>6</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="Q21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
@@ -5076,83 +5224,89 @@
       <c r="I22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="12" t="str">
         <f>CONCATENATE(B22,Tabla6[[#This Row],[nombreVoz]],B22)</f>
         <v>'profundo'</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="1" t="str">
+      <c r="M22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="1" t="str">
         <f>(Tabla6[[#This Row],[descripcionVoz]])</f>
         <v>null</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="O22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="1">
         <f>(Tabla6[[#This Row],[fkVoz]])</f>
         <v>6</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="Q22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:17">
       <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:17">
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:17">
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:17">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:17">
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:17">
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:17">
       <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:17">
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:17">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -6420,6 +6574,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -6435,14 +6590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C187" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="3" width="10.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -6450,7 +6606,7 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="28.83203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="2.83203125" customWidth="1"/>
@@ -6507,9 +6663,8 @@
       <c r="J4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K4" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>1</v>
+      <c r="K4" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
@@ -6560,9 +6715,8 @@
       <c r="J5" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K5" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>2</v>
+      <c r="K5" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>29</v>
@@ -6613,9 +6767,8 @@
       <c r="J6" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>3</v>
+      <c r="K6" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>29</v>
@@ -6666,9 +6819,8 @@
       <c r="J7" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K7" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>4</v>
+      <c r="K7" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>29</v>
@@ -6719,9 +6871,8 @@
       <c r="J8" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>5</v>
+      <c r="K8" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>29</v>
@@ -6772,9 +6923,8 @@
       <c r="J9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K9" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>6</v>
+      <c r="K9" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>29</v>
@@ -6825,9 +6975,8 @@
       <c r="J10" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K10" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>7</v>
+      <c r="K10" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>29</v>
@@ -6878,9 +7027,8 @@
       <c r="J11" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K11" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>8</v>
+      <c r="K11" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
@@ -6931,9 +7079,8 @@
       <c r="J12" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K12" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>9</v>
+      <c r="K12" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>29</v>
@@ -6984,9 +7131,8 @@
       <c r="J13" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K13" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>10</v>
+      <c r="K13" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>29</v>
@@ -7037,9 +7183,8 @@
       <c r="J14" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K14" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>11</v>
+      <c r="K14" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>29</v>
@@ -7090,9 +7235,8 @@
       <c r="J15" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K15" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>12</v>
+      <c r="K15" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>29</v>
@@ -7143,9 +7287,8 @@
       <c r="J16" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K16" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>13</v>
+      <c r="K16" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>29</v>
@@ -7196,9 +7339,8 @@
       <c r="J17" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K17" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>14</v>
+      <c r="K17" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>29</v>
@@ -7249,9 +7391,8 @@
       <c r="J18" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K18" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>15</v>
+      <c r="K18" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>29</v>
@@ -7302,9 +7443,8 @@
       <c r="J19" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K19" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>16</v>
+      <c r="K19" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>29</v>
@@ -7355,9 +7495,8 @@
       <c r="J20" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K20" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>17</v>
+      <c r="K20" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>29</v>
@@ -7408,9 +7547,8 @@
       <c r="J21" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K21" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>18</v>
+      <c r="K21" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>29</v>
@@ -7461,9 +7599,8 @@
       <c r="J22" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K22" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>19</v>
+      <c r="K22" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
@@ -7514,9 +7651,8 @@
       <c r="J23" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K23" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>20</v>
+      <c r="K23" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>29</v>
@@ -7567,9 +7703,8 @@
       <c r="J24" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K24" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>21</v>
+      <c r="K24" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>29</v>
@@ -7620,9 +7755,8 @@
       <c r="J25" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K25" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>22</v>
+      <c r="K25" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>29</v>
@@ -7673,9 +7807,8 @@
       <c r="J26" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K26" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>23</v>
+      <c r="K26" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>29</v>
@@ -7726,9 +7859,8 @@
       <c r="J27" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K27" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>24</v>
+      <c r="K27" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>29</v>
@@ -7779,9 +7911,8 @@
       <c r="J28" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K28" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>25</v>
+      <c r="K28" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>29</v>
@@ -7832,9 +7963,8 @@
       <c r="J29" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K29" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>26</v>
+      <c r="K29" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>29</v>
@@ -7885,9 +8015,8 @@
       <c r="J30" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K30" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>27</v>
+      <c r="K30" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>29</v>
@@ -7938,9 +8067,8 @@
       <c r="J31" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K31" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>28</v>
+      <c r="K31" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>29</v>
@@ -7991,9 +8119,8 @@
       <c r="J32" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K32" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>29</v>
+      <c r="K32" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>29</v>
@@ -8044,9 +8171,8 @@
       <c r="J33" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K33" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>30</v>
+      <c r="K33" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>29</v>
@@ -8097,9 +8223,8 @@
       <c r="J34" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>31</v>
+      <c r="K34" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>29</v>
@@ -8150,9 +8275,8 @@
       <c r="J35" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K35" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>32</v>
+      <c r="K35" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>29</v>
@@ -8203,9 +8327,8 @@
       <c r="J36" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K36" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>33</v>
+      <c r="K36" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>29</v>
@@ -8256,9 +8379,8 @@
       <c r="J37" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K37" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>34</v>
+      <c r="K37" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>29</v>
@@ -8309,9 +8431,8 @@
       <c r="J38" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K38" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>35</v>
+      <c r="K38" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>29</v>
@@ -8362,9 +8483,8 @@
       <c r="J39" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K39" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>36</v>
+      <c r="K39" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
@@ -8415,9 +8535,8 @@
       <c r="J40" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K40" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>37</v>
+      <c r="K40" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>29</v>
@@ -8468,9 +8587,8 @@
       <c r="J41" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K41" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>38</v>
+      <c r="K41" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>29</v>
@@ -8521,9 +8639,8 @@
       <c r="J42" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K42" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>39</v>
+      <c r="K42" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>29</v>
@@ -8574,9 +8691,8 @@
       <c r="J43" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K43" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>40</v>
+      <c r="K43" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>29</v>
@@ -8627,9 +8743,8 @@
       <c r="J44" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K44" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>41</v>
+      <c r="K44" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>29</v>
@@ -8680,9 +8795,8 @@
       <c r="J45" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K45" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>42</v>
+      <c r="K45" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>29</v>
@@ -8733,9 +8847,8 @@
       <c r="J46" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K46" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>43</v>
+      <c r="K46" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>29</v>
@@ -8786,9 +8899,8 @@
       <c r="J47" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K47" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>44</v>
+      <c r="K47" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>29</v>
@@ -8839,9 +8951,8 @@
       <c r="J48" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K48" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>45</v>
+      <c r="K48" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>29</v>
@@ -8892,9 +9003,8 @@
       <c r="J49" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K49" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>46</v>
+      <c r="K49" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>29</v>
@@ -8945,9 +9055,8 @@
       <c r="J50" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K50" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>47</v>
+      <c r="K50" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>29</v>
@@ -8998,9 +9107,8 @@
       <c r="J51" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K51" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>48</v>
+      <c r="K51" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>29</v>
@@ -9051,9 +9159,8 @@
       <c r="J52" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K52" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>49</v>
+      <c r="K52" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>29</v>
@@ -9104,9 +9211,8 @@
       <c r="J53" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K53" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>50</v>
+      <c r="K53" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>29</v>
@@ -9157,9 +9263,8 @@
       <c r="J54" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K54" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>51</v>
+      <c r="K54" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>29</v>
@@ -9210,9 +9315,8 @@
       <c r="J55" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K55" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>52</v>
+      <c r="K55" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>29</v>
@@ -9263,9 +9367,8 @@
       <c r="J56" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K56" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>53</v>
+      <c r="K56" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>29</v>
@@ -9316,9 +9419,8 @@
       <c r="J57" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K57" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>54</v>
+      <c r="K57" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>29</v>
@@ -9369,9 +9471,8 @@
       <c r="J58" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K58" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>55</v>
+      <c r="K58" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>29</v>
@@ -9422,9 +9523,8 @@
       <c r="J59" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K59" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>56</v>
+      <c r="K59" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>29</v>
@@ -9475,9 +9575,8 @@
       <c r="J60" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K60" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>57</v>
+      <c r="K60" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>29</v>
@@ -9528,9 +9627,8 @@
       <c r="J61" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K61" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>58</v>
+      <c r="K61" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>29</v>
@@ -9581,9 +9679,8 @@
       <c r="J62" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K62" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>59</v>
+      <c r="K62" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>29</v>
@@ -9634,9 +9731,8 @@
       <c r="J63" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K63" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>60</v>
+      <c r="K63" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>29</v>
@@ -9687,9 +9783,8 @@
       <c r="J64" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K64" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>61</v>
+      <c r="K64" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>29</v>
@@ -9740,9 +9835,8 @@
       <c r="J65" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K65" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>62</v>
+      <c r="K65" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>29</v>
@@ -9793,9 +9887,8 @@
       <c r="J66" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K66" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>63</v>
+      <c r="K66" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>29</v>
@@ -9846,9 +9939,8 @@
       <c r="J67" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K67" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>64</v>
+      <c r="K67" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>29</v>
@@ -9899,9 +9991,8 @@
       <c r="J68" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K68" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>65</v>
+      <c r="K68" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>29</v>
@@ -9952,9 +10043,8 @@
       <c r="J69" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K69" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>66</v>
+      <c r="K69" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>29</v>
@@ -10005,9 +10095,8 @@
       <c r="J70" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K70" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>67</v>
+      <c r="K70" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>29</v>
@@ -10058,9 +10147,8 @@
       <c r="J71" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K71" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>68</v>
+      <c r="K71" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>29</v>
@@ -10111,9 +10199,8 @@
       <c r="J72" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K72" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>69</v>
+      <c r="K72" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>29</v>
@@ -10164,9 +10251,8 @@
       <c r="J73" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K73" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>70</v>
+      <c r="K73" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>29</v>
@@ -10217,9 +10303,8 @@
       <c r="J74" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K74" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>71</v>
+      <c r="K74" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>29</v>
@@ -10270,9 +10355,8 @@
       <c r="J75" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K75" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>72</v>
+      <c r="K75" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>29</v>
@@ -10323,9 +10407,8 @@
       <c r="J76" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K76" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>73</v>
+      <c r="K76" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>29</v>
@@ -10376,9 +10459,8 @@
       <c r="J77" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K77" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>74</v>
+      <c r="K77" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>29</v>
@@ -10429,9 +10511,8 @@
       <c r="J78" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K78" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>75</v>
+      <c r="K78" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>29</v>
@@ -10482,9 +10563,8 @@
       <c r="J79" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K79" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>76</v>
+      <c r="K79" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>29</v>
@@ -10535,9 +10615,8 @@
       <c r="J80" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K80" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>77</v>
+      <c r="K80" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>29</v>
@@ -10588,9 +10667,8 @@
       <c r="J81" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K81" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>78</v>
+      <c r="K81" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>29</v>
@@ -10641,9 +10719,8 @@
       <c r="J82" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K82" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>79</v>
+      <c r="K82" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>29</v>
@@ -10694,9 +10771,8 @@
       <c r="J83" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K83" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>80</v>
+      <c r="K83" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>29</v>
@@ -10747,9 +10823,8 @@
       <c r="J84" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K84" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>81</v>
+      <c r="K84" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>29</v>
@@ -10800,9 +10875,8 @@
       <c r="J85" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K85" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>82</v>
+      <c r="K85" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>29</v>
@@ -10853,9 +10927,8 @@
       <c r="J86" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K86" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>83</v>
+      <c r="K86" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>29</v>
@@ -10906,9 +10979,8 @@
       <c r="J87" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K87" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>84</v>
+      <c r="K87" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>29</v>
@@ -10959,9 +11031,8 @@
       <c r="J88" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K88" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>85</v>
+      <c r="K88" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>29</v>
@@ -11012,9 +11083,8 @@
       <c r="J89" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K89" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>86</v>
+      <c r="K89" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>29</v>
@@ -11065,9 +11135,8 @@
       <c r="J90" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K90" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>87</v>
+      <c r="K90" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>29</v>
@@ -11118,9 +11187,8 @@
       <c r="J91" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K91" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>88</v>
+      <c r="K91" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>29</v>
@@ -11171,9 +11239,8 @@
       <c r="J92" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K92" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>89</v>
+      <c r="K92" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>29</v>
@@ -11224,9 +11291,8 @@
       <c r="J93" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K93" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>90</v>
+      <c r="K93" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>29</v>
@@ -11277,9 +11343,8 @@
       <c r="J94" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K94" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>91</v>
+      <c r="K94" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>29</v>
@@ -11330,9 +11395,8 @@
       <c r="J95" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K95" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>92</v>
+      <c r="K95" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>29</v>
@@ -11383,9 +11447,8 @@
       <c r="J96" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K96" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>93</v>
+      <c r="K96" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>29</v>
@@ -11436,9 +11499,8 @@
       <c r="J97" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K97" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>94</v>
+      <c r="K97" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>29</v>
@@ -11489,9 +11551,8 @@
       <c r="J98" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K98" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>95</v>
+      <c r="K98" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>29</v>
@@ -11542,9 +11603,8 @@
       <c r="J99" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K99" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>96</v>
+      <c r="K99" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>29</v>
@@ -11595,9 +11655,8 @@
       <c r="J100" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K100" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>97</v>
+      <c r="K100" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>29</v>
@@ -11648,9 +11707,8 @@
       <c r="J101" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K101" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>98</v>
+      <c r="K101" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>29</v>
@@ -11701,9 +11759,8 @@
       <c r="J102" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K102" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>99</v>
+      <c r="K102" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>29</v>
@@ -11754,9 +11811,8 @@
       <c r="J103" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K103" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>100</v>
+      <c r="K103" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>29</v>
@@ -11807,9 +11863,8 @@
       <c r="J104" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K104" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>101</v>
+      <c r="K104" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>29</v>
@@ -11860,9 +11915,8 @@
       <c r="J105" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K105" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>102</v>
+      <c r="K105" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>29</v>
@@ -11913,9 +11967,8 @@
       <c r="J106" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K106" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>103</v>
+      <c r="K106" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>29</v>
@@ -11966,9 +12019,8 @@
       <c r="J107" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K107" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>104</v>
+      <c r="K107" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>29</v>
@@ -12019,9 +12071,8 @@
       <c r="J108" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K108" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>105</v>
+      <c r="K108" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>29</v>
@@ -12072,9 +12123,8 @@
       <c r="J109" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K109" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>106</v>
+      <c r="K109" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>29</v>
@@ -12125,9 +12175,8 @@
       <c r="J110" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K110" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>107</v>
+      <c r="K110" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>29</v>
@@ -12178,9 +12227,8 @@
       <c r="J111" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K111" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>108</v>
+      <c r="K111" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>29</v>
@@ -12231,9 +12279,8 @@
       <c r="J112" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K112" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>109</v>
+      <c r="K112" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>29</v>
@@ -12284,9 +12331,8 @@
       <c r="J113" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K113" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>110</v>
+      <c r="K113" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>29</v>
@@ -12337,9 +12383,8 @@
       <c r="J114" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K114" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>111</v>
+      <c r="K114" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>29</v>
@@ -12390,9 +12435,8 @@
       <c r="J115" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K115" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>112</v>
+      <c r="K115" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>29</v>
@@ -12443,9 +12487,8 @@
       <c r="J116" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K116" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>113</v>
+      <c r="K116" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>29</v>
@@ -12496,9 +12539,8 @@
       <c r="J117" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K117" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>114</v>
+      <c r="K117" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>29</v>
@@ -12549,9 +12591,8 @@
       <c r="J118" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K118" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>115</v>
+      <c r="K118" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L118" s="5" t="s">
         <v>29</v>
@@ -12602,9 +12643,8 @@
       <c r="J119" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K119" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>116</v>
+      <c r="K119" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L119" s="5" t="s">
         <v>29</v>
@@ -12655,9 +12695,8 @@
       <c r="J120" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K120" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>117</v>
+      <c r="K120" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>29</v>
@@ -12708,9 +12747,8 @@
       <c r="J121" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K121" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>118</v>
+      <c r="K121" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>29</v>
@@ -12761,9 +12799,8 @@
       <c r="J122" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K122" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>119</v>
+      <c r="K122" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>29</v>
@@ -12814,9 +12851,8 @@
       <c r="J123" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K123" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>120</v>
+      <c r="K123" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>29</v>
@@ -12867,9 +12903,8 @@
       <c r="J124" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K124" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>121</v>
+      <c r="K124" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>29</v>
@@ -12920,9 +12955,8 @@
       <c r="J125" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K125" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>122</v>
+      <c r="K125" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>29</v>
@@ -12973,9 +13007,8 @@
       <c r="J126" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K126" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>123</v>
+      <c r="K126" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>29</v>
@@ -13026,9 +13059,8 @@
       <c r="J127" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K127" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>124</v>
+      <c r="K127" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>29</v>
@@ -13079,9 +13111,8 @@
       <c r="J128" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K128" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>125</v>
+      <c r="K128" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>29</v>
@@ -13132,9 +13163,8 @@
       <c r="J129" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K129" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>126</v>
+      <c r="K129" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>29</v>
@@ -13185,9 +13215,8 @@
       <c r="J130" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K130" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>127</v>
+      <c r="K130" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>29</v>
@@ -13238,9 +13267,8 @@
       <c r="J131" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K131" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>128</v>
+      <c r="K131" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>29</v>
@@ -13291,9 +13319,8 @@
       <c r="J132" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K132" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>129</v>
+      <c r="K132" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>29</v>
@@ -13344,9 +13371,8 @@
       <c r="J133" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K133" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>130</v>
+      <c r="K133" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>29</v>
@@ -13397,9 +13423,8 @@
       <c r="J134" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K134" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>131</v>
+      <c r="K134" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L134" s="5" t="s">
         <v>29</v>
@@ -13450,9 +13475,8 @@
       <c r="J135" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K135" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>132</v>
+      <c r="K135" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L135" s="5" t="s">
         <v>29</v>
@@ -13503,9 +13527,8 @@
       <c r="J136" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K136" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>133</v>
+      <c r="K136" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L136" s="5" t="s">
         <v>29</v>
@@ -13556,9 +13579,8 @@
       <c r="J137" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K137" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>134</v>
+      <c r="K137" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L137" s="5" t="s">
         <v>29</v>
@@ -13609,9 +13631,8 @@
       <c r="J138" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K138" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>135</v>
+      <c r="K138" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L138" s="5" t="s">
         <v>29</v>
@@ -13662,9 +13683,8 @@
       <c r="J139" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K139" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>136</v>
+      <c r="K139" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L139" s="5" t="s">
         <v>29</v>
@@ -13715,9 +13735,8 @@
       <c r="J140" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K140" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>137</v>
+      <c r="K140" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L140" s="5" t="s">
         <v>29</v>
@@ -13768,9 +13787,8 @@
       <c r="J141" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K141" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>138</v>
+      <c r="K141" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L141" s="5" t="s">
         <v>29</v>
@@ -13821,9 +13839,8 @@
       <c r="J142" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K142" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>139</v>
+      <c r="K142" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L142" s="5" t="s">
         <v>29</v>
@@ -13874,9 +13891,8 @@
       <c r="J143" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K143" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>140</v>
+      <c r="K143" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L143" s="5" t="s">
         <v>29</v>
@@ -13927,9 +13943,8 @@
       <c r="J144" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K144" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>141</v>
+      <c r="K144" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>29</v>
@@ -13980,9 +13995,8 @@
       <c r="J145" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K145" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>142</v>
+      <c r="K145" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L145" s="5" t="s">
         <v>29</v>
@@ -14033,9 +14047,8 @@
       <c r="J146" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K146" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>143</v>
+      <c r="K146" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L146" s="5" t="s">
         <v>29</v>
@@ -14086,9 +14099,8 @@
       <c r="J147" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K147" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>144</v>
+      <c r="K147" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L147" s="5" t="s">
         <v>29</v>
@@ -14139,9 +14151,8 @@
       <c r="J148" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K148" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>145</v>
+      <c r="K148" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L148" s="5" t="s">
         <v>29</v>
@@ -14192,9 +14203,8 @@
       <c r="J149" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K149" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>146</v>
+      <c r="K149" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L149" s="5" t="s">
         <v>29</v>
@@ -14245,9 +14255,8 @@
       <c r="J150" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K150" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>147</v>
+      <c r="K150" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L150" s="5" t="s">
         <v>29</v>
@@ -14298,9 +14307,8 @@
       <c r="J151" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K151" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>148</v>
+      <c r="K151" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L151" s="5" t="s">
         <v>29</v>
@@ -14351,9 +14359,8 @@
       <c r="J152" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K152" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>149</v>
+      <c r="K152" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L152" s="5" t="s">
         <v>29</v>
@@ -14404,9 +14411,8 @@
       <c r="J153" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K153" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>150</v>
+      <c r="K153" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L153" s="5" t="s">
         <v>29</v>
@@ -14457,9 +14463,8 @@
       <c r="J154" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K154" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>151</v>
+      <c r="K154" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>29</v>
@@ -14510,9 +14515,8 @@
       <c r="J155" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K155" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>152</v>
+      <c r="K155" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L155" s="5" t="s">
         <v>29</v>
@@ -14563,9 +14567,8 @@
       <c r="J156" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K156" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>153</v>
+      <c r="K156" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L156" s="5" t="s">
         <v>29</v>
@@ -14616,9 +14619,8 @@
       <c r="J157" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K157" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>154</v>
+      <c r="K157" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>29</v>
@@ -14669,9 +14671,8 @@
       <c r="J158" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K158" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>155</v>
+      <c r="K158" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L158" s="5" t="s">
         <v>29</v>
@@ -14722,9 +14723,8 @@
       <c r="J159" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K159" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>156</v>
+      <c r="K159" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L159" s="5" t="s">
         <v>29</v>
@@ -14775,9 +14775,8 @@
       <c r="J160" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K160" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>157</v>
+      <c r="K160" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>29</v>
@@ -14828,9 +14827,8 @@
       <c r="J161" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K161" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>158</v>
+      <c r="K161" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L161" s="5" t="s">
         <v>29</v>
@@ -14881,9 +14879,8 @@
       <c r="J162" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K162" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>159</v>
+      <c r="K162" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L162" s="5" t="s">
         <v>29</v>
@@ -14934,9 +14931,8 @@
       <c r="J163" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K163" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>160</v>
+      <c r="K163" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L163" s="5" t="s">
         <v>29</v>
@@ -14987,9 +14983,8 @@
       <c r="J164" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K164" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>161</v>
+      <c r="K164" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L164" s="5" t="s">
         <v>29</v>
@@ -15040,9 +15035,8 @@
       <c r="J165" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K165" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>162</v>
+      <c r="K165" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L165" s="5" t="s">
         <v>29</v>
@@ -15093,9 +15087,8 @@
       <c r="J166" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K166" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>163</v>
+      <c r="K166" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L166" s="5" t="s">
         <v>29</v>
@@ -15146,9 +15139,8 @@
       <c r="J167" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K167" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>164</v>
+      <c r="K167" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L167" s="5" t="s">
         <v>29</v>
@@ -15199,9 +15191,8 @@
       <c r="J168" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K168" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>165</v>
+      <c r="K168" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L168" s="5" t="s">
         <v>29</v>
@@ -15252,9 +15243,8 @@
       <c r="J169" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K169" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>166</v>
+      <c r="K169" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L169" s="5" t="s">
         <v>29</v>
@@ -15305,9 +15295,8 @@
       <c r="J170" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K170" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>167</v>
+      <c r="K170" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L170" s="5" t="s">
         <v>29</v>
@@ -15358,9 +15347,8 @@
       <c r="J171" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K171" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>168</v>
+      <c r="K171" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L171" s="5" t="s">
         <v>29</v>
@@ -15411,9 +15399,8 @@
       <c r="J172" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K172" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>169</v>
+      <c r="K172" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>29</v>
@@ -15464,9 +15451,8 @@
       <c r="J173" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K173" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>170</v>
+      <c r="K173" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L173" s="5" t="s">
         <v>29</v>
@@ -15517,9 +15503,8 @@
       <c r="J174" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K174" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>171</v>
+      <c r="K174" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L174" s="5" t="s">
         <v>29</v>
@@ -15570,9 +15555,8 @@
       <c r="J175" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K175" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>172</v>
+      <c r="K175" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L175" s="5" t="s">
         <v>29</v>
@@ -15623,9 +15607,8 @@
       <c r="J176" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K176" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>173</v>
+      <c r="K176" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L176" s="5" t="s">
         <v>29</v>
@@ -15676,9 +15659,8 @@
       <c r="J177" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K177" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>174</v>
+      <c r="K177" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>29</v>
@@ -15729,9 +15711,8 @@
       <c r="J178" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K178" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>175</v>
+      <c r="K178" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L178" s="5" t="s">
         <v>29</v>
@@ -15782,9 +15763,8 @@
       <c r="J179" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K179" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>176</v>
+      <c r="K179" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L179" s="5" t="s">
         <v>29</v>
@@ -15835,9 +15815,8 @@
       <c r="J180" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K180" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>177</v>
+      <c r="K180" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L180" s="5" t="s">
         <v>29</v>
@@ -15888,9 +15867,8 @@
       <c r="J181" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K181" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>178</v>
+      <c r="K181" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L181" s="5" t="s">
         <v>29</v>
@@ -15941,9 +15919,8 @@
       <c r="J182" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K182" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>179</v>
+      <c r="K182" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L182" s="5" t="s">
         <v>29</v>
@@ -15994,9 +15971,8 @@
       <c r="J183" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K183" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>180</v>
+      <c r="K183" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L183" s="5" t="s">
         <v>29</v>
@@ -16047,9 +16023,8 @@
       <c r="J184" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K184" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>181</v>
+      <c r="K184" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L184" s="5" t="s">
         <v>29</v>
@@ -16100,9 +16075,8 @@
       <c r="J185" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K185" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>182</v>
+      <c r="K185" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L185" s="5" t="s">
         <v>29</v>
@@ -16153,9 +16127,8 @@
       <c r="J186" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K186" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>183</v>
+      <c r="K186" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L186" s="5" t="s">
         <v>29</v>
@@ -16206,9 +16179,8 @@
       <c r="J187" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K187" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>184</v>
+      <c r="K187" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L187" s="5" t="s">
         <v>29</v>
@@ -16259,9 +16231,8 @@
       <c r="J188" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K188" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>185</v>
+      <c r="K188" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L188" s="5" t="s">
         <v>29</v>
@@ -16303,10 +16274,10 @@
         <v>186</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>34</v>
@@ -16317,9 +16288,8 @@
       <c r="J189" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K189" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>186</v>
+      <c r="K189" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L189" s="5" t="s">
         <v>29</v>
@@ -16333,7 +16303,7 @@
       </c>
       <c r="O189" s="3" t="str">
         <f>CONCATENATE(B189,Tabla8[[#This Row],[tipoLugar]],B189)</f>
-        <v>'con'</v>
+        <v>'e'</v>
       </c>
       <c r="P189" s="5" t="s">
         <v>29</v>
@@ -16359,10 +16329,10 @@
         <v>187</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>34</v>
@@ -16373,9 +16343,8 @@
       <c r="J190" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K190" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>187</v>
+      <c r="K190" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L190" s="5" t="s">
         <v>29</v>
@@ -16415,10 +16384,10 @@
         <v>188</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>34</v>
@@ -16429,9 +16398,8 @@
       <c r="J191" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K191" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>188</v>
+      <c r="K191" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L191" s="5" t="s">
         <v>29</v>
@@ -16445,7 +16413,7 @@
       </c>
       <c r="O191" s="3" t="str">
         <f>CONCATENATE(B191,Tabla8[[#This Row],[tipoLugar]],B191)</f>
-        <v>'con'</v>
+        <v>'e'</v>
       </c>
       <c r="P191" s="5" t="s">
         <v>29</v>
@@ -16471,10 +16439,10 @@
         <v>189</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>34</v>
@@ -16485,9 +16453,8 @@
       <c r="J192" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K192" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>189</v>
+      <c r="K192" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L192" s="5" t="s">
         <v>29</v>
@@ -16527,10 +16494,10 @@
         <v>190</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>34</v>
@@ -16541,9 +16508,8 @@
       <c r="J193" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K193" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>190</v>
+      <c r="K193" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L193" s="5" t="s">
         <v>29</v>
@@ -16557,7 +16523,7 @@
       </c>
       <c r="O193" s="3" t="str">
         <f>CONCATENATE(B193,Tabla8[[#This Row],[tipoLugar]],B193)</f>
-        <v>'con'</v>
+        <v>'e'</v>
       </c>
       <c r="P193" s="5" t="s">
         <v>29</v>
@@ -16583,10 +16549,10 @@
         <v>191</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>34</v>
@@ -16597,9 +16563,8 @@
       <c r="J194" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K194" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>191</v>
+      <c r="K194" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L194" s="5" t="s">
         <v>29</v>
@@ -16639,10 +16604,10 @@
         <v>192</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>34</v>
@@ -16653,9 +16618,8 @@
       <c r="J195" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K195" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>192</v>
+      <c r="K195" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L195" s="5" t="s">
         <v>29</v>
@@ -16669,7 +16633,7 @@
       </c>
       <c r="O195" s="3" t="str">
         <f>CONCATENATE(B195,Tabla8[[#This Row],[tipoLugar]],B195)</f>
-        <v>'con'</v>
+        <v>'e'</v>
       </c>
       <c r="P195" s="5" t="s">
         <v>29</v>
@@ -16695,10 +16659,10 @@
         <v>193</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>34</v>
@@ -16709,9 +16673,8 @@
       <c r="J196" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K196" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>193</v>
+      <c r="K196" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L196" s="5" t="s">
         <v>29</v>
@@ -16753,10 +16716,10 @@
         <v>194</v>
       </c>
       <c r="E197" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>34</v>
@@ -16767,9 +16730,8 @@
       <c r="J197" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K197" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>194</v>
+      <c r="K197" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L197" s="5" t="s">
         <v>29</v>
@@ -16812,7 +16774,7 @@
         <v>118</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>34</v>
@@ -16823,9 +16785,8 @@
       <c r="J198" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K198" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>195</v>
+      <c r="K198" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L198" s="5" t="s">
         <v>29</v>
@@ -16865,10 +16826,10 @@
         <v>196</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>34</v>
@@ -16879,9 +16840,8 @@
       <c r="J199" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K199" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>196</v>
+      <c r="K199" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L199" s="5" t="s">
         <v>29</v>
@@ -16921,10 +16881,10 @@
         <v>197</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>34</v>
@@ -16935,9 +16895,8 @@
       <c r="J200" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K200" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>197</v>
+      <c r="K200" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>29</v>
@@ -16977,10 +16936,10 @@
         <v>198</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>34</v>
@@ -16991,9 +16950,8 @@
       <c r="J201" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K201" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>198</v>
+      <c r="K201" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L201" s="5" t="s">
         <v>29</v>
@@ -17033,10 +16991,10 @@
         <v>199</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>34</v>
@@ -17047,9 +17005,8 @@
       <c r="J202" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K202" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>199</v>
+      <c r="K202" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L202" s="5" t="s">
         <v>29</v>
@@ -17089,10 +17046,10 @@
         <v>200</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>34</v>
@@ -17103,9 +17060,8 @@
       <c r="J203" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K203" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>200</v>
+      <c r="K203" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L203" s="5" t="s">
         <v>29</v>
@@ -17145,10 +17101,10 @@
         <v>201</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>34</v>
@@ -17159,9 +17115,8 @@
       <c r="J204" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K204" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>201</v>
+      <c r="K204" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L204" s="5" t="s">
         <v>29</v>
@@ -17201,10 +17156,10 @@
         <v>202</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>34</v>
@@ -17215,9 +17170,8 @@
       <c r="J205" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K205" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>202</v>
+      <c r="K205" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L205" s="5" t="s">
         <v>29</v>
@@ -17257,10 +17211,10 @@
         <v>203</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>34</v>
@@ -17271,9 +17225,8 @@
       <c r="J206" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K206" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>203</v>
+      <c r="K206" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L206" s="5" t="s">
         <v>29</v>
@@ -17313,10 +17266,10 @@
         <v>204</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>34</v>
@@ -17327,9 +17280,8 @@
       <c r="J207" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K207" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>204</v>
+      <c r="K207" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L207" s="5" t="s">
         <v>29</v>
@@ -17369,10 +17321,10 @@
         <v>205</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>34</v>
@@ -17383,9 +17335,8 @@
       <c r="J208" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K208" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>205</v>
+      <c r="K208" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L208" s="5" t="s">
         <v>29</v>
@@ -17425,10 +17376,10 @@
         <v>206</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>34</v>
@@ -17439,9 +17390,8 @@
       <c r="J209" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K209" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>206</v>
+      <c r="K209" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L209" s="5" t="s">
         <v>29</v>
@@ -17481,10 +17431,10 @@
         <v>207</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>34</v>
@@ -17495,9 +17445,8 @@
       <c r="J210" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K210" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>207</v>
+      <c r="K210" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L210" s="5" t="s">
         <v>29</v>
@@ -17537,10 +17486,10 @@
         <v>208</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>34</v>
@@ -17551,9 +17500,8 @@
       <c r="J211" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K211" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>208</v>
+      <c r="K211" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L211" s="5" t="s">
         <v>29</v>
@@ -17593,10 +17541,10 @@
         <v>209</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>34</v>
@@ -17607,9 +17555,8 @@
       <c r="J212" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K212" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>209</v>
+      <c r="K212" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L212" s="5" t="s">
         <v>29</v>
@@ -17649,10 +17596,10 @@
         <v>210</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>34</v>
@@ -17663,9 +17610,8 @@
       <c r="J213" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K213" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>210</v>
+      <c r="K213" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L213" s="5" t="s">
         <v>29</v>
@@ -17707,10 +17653,10 @@
         <v>211</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>34</v>
@@ -17721,9 +17667,8 @@
       <c r="J214" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K214" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>211</v>
+      <c r="K214" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L214" s="5" t="s">
         <v>29</v>
@@ -17763,10 +17708,10 @@
         <v>212</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>34</v>
@@ -17777,9 +17722,8 @@
       <c r="J215" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K215" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>212</v>
+      <c r="K215" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L215" s="5" t="s">
         <v>29</v>
@@ -17819,10 +17763,10 @@
         <v>213</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>34</v>
@@ -17833,9 +17777,8 @@
       <c r="J216" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K216" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>213</v>
+      <c r="K216" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L216" s="5" t="s">
         <v>29</v>
@@ -17875,10 +17818,10 @@
         <v>214</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>34</v>
@@ -17889,9 +17832,8 @@
       <c r="J217" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K217" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>214</v>
+      <c r="K217" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L217" s="5" t="s">
         <v>29</v>
@@ -17931,10 +17873,10 @@
         <v>215</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>34</v>
@@ -17945,9 +17887,8 @@
       <c r="J218" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K218" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>215</v>
+      <c r="K218" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>29</v>
@@ -17987,10 +17928,10 @@
         <v>216</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>34</v>
@@ -18001,9 +17942,8 @@
       <c r="J219" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K219" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>216</v>
+      <c r="K219" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>29</v>
@@ -18043,10 +17983,10 @@
         <v>217</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>34</v>
@@ -18057,9 +17997,8 @@
       <c r="J220" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K220" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>217</v>
+      <c r="K220" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>29</v>
@@ -18099,10 +18038,10 @@
         <v>218</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>34</v>
@@ -18113,9 +18052,8 @@
       <c r="J221" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K221" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>218</v>
+      <c r="K221" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>29</v>
@@ -18157,9 +18095,8 @@
       <c r="J222" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K222" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>219</v>
+      <c r="K222" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>29</v>
@@ -18201,9 +18138,8 @@
       <c r="J223" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K223" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>220</v>
+      <c r="K223" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>29</v>
@@ -18245,9 +18181,8 @@
       <c r="J224" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K224" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>221</v>
+      <c r="K224" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L224" s="5" t="s">
         <v>29</v>
@@ -18289,9 +18224,8 @@
       <c r="J225" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K225" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>222</v>
+      <c r="K225" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>29</v>
@@ -18333,9 +18267,8 @@
       <c r="J226" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K226" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>223</v>
+      <c r="K226" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L226" s="5" t="s">
         <v>29</v>
@@ -18377,9 +18310,8 @@
       <c r="J227" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K227" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>224</v>
+      <c r="K227" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>29</v>
@@ -18421,9 +18353,8 @@
       <c r="J228" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K228" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>225</v>
+      <c r="K228" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>29</v>
@@ -18465,9 +18396,8 @@
       <c r="J229" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K229" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>226</v>
+      <c r="K229" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>29</v>
@@ -18509,9 +18439,8 @@
       <c r="J230" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K230" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>227</v>
+      <c r="K230" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>29</v>
@@ -18553,9 +18482,8 @@
       <c r="J231" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K231" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>228</v>
+      <c r="K231" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L231" s="5" t="s">
         <v>29</v>
@@ -18597,9 +18525,8 @@
       <c r="J232" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K232" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>229</v>
+      <c r="K232" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L232" s="5" t="s">
         <v>29</v>
@@ -18641,9 +18568,8 @@
       <c r="J233" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K233" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>230</v>
+      <c r="K233" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L233" s="5" t="s">
         <v>29</v>
@@ -18685,9 +18611,8 @@
       <c r="J234" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K234" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>231</v>
+      <c r="K234" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L234" s="5" t="s">
         <v>29</v>
@@ -18729,9 +18654,8 @@
       <c r="J235" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K235" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>232</v>
+      <c r="K235" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L235" s="5" t="s">
         <v>29</v>
@@ -18773,9 +18697,8 @@
       <c r="J236" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K236" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>233</v>
+      <c r="K236" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L236" s="5" t="s">
         <v>29</v>
@@ -18817,9 +18740,8 @@
       <c r="J237" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K237" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>234</v>
+      <c r="K237" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>29</v>
@@ -18861,9 +18783,8 @@
       <c r="J238" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K238" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>235</v>
+      <c r="K238" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L238" s="5" t="s">
         <v>29</v>
@@ -18905,9 +18826,8 @@
       <c r="J239" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K239" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>236</v>
+      <c r="K239" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L239" s="5" t="s">
         <v>29</v>
@@ -18949,9 +18869,8 @@
       <c r="J240" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K240" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>237</v>
+      <c r="K240" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L240" s="5" t="s">
         <v>29</v>
@@ -18993,9 +18912,8 @@
       <c r="J241" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K241" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>238</v>
+      <c r="K241" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L241" s="5" t="s">
         <v>29</v>
@@ -19037,9 +18955,8 @@
       <c r="J242" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K242" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>239</v>
+      <c r="K242" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L242" s="5" t="s">
         <v>29</v>
@@ -19080,9 +18997,8 @@
       <c r="J243" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K243" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>240</v>
+      <c r="K243" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L243" s="5" t="s">
         <v>29</v>
@@ -19123,9 +19039,8 @@
       <c r="J244" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K244" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>241</v>
+      <c r="K244" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L244" s="5" t="s">
         <v>29</v>
@@ -19166,9 +19081,8 @@
       <c r="J245" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K245" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>242</v>
+      <c r="K245" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L245" s="5" t="s">
         <v>29</v>
@@ -19209,9 +19123,8 @@
       <c r="J246" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K246" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>243</v>
+      <c r="K246" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L246" s="5" t="s">
         <v>29</v>
@@ -19252,9 +19165,8 @@
       <c r="J247" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K247" s="1">
-        <f>(Tabla8[[#This Row],[idLugar]])</f>
-        <v>244</v>
+      <c r="K247" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="L247" s="5" t="s">
         <v>29</v>
@@ -19295,7 +19207,6 @@
     <mergeCell ref="C214:C221"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -19311,8 +19222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P243"/>
   <sheetViews>
-    <sheetView topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView topLeftCell="B101" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19323,7 +19234,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="12" customWidth="1"/>
     <col min="11" max="11" width="15" style="13" customWidth="1"/>
     <col min="12" max="12" width="4" style="12" customWidth="1"/>
@@ -19376,9 +19287,8 @@
       <c r="H4" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I4" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>1</v>
+      <c r="I4" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>29</v>
@@ -19424,9 +19334,8 @@
       <c r="H5" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I5" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>2</v>
+      <c r="I5" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>29</v>
@@ -19472,9 +19381,8 @@
       <c r="H6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>3</v>
+      <c r="I6" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>29</v>
@@ -19520,9 +19428,8 @@
       <c r="H7" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I7" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>4</v>
+      <c r="I7" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>29</v>
@@ -19568,9 +19475,8 @@
       <c r="H8" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I8" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>5</v>
+      <c r="I8" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -19616,9 +19522,8 @@
       <c r="H9" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I9" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>6</v>
+      <c r="I9" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>29</v>
@@ -19664,9 +19569,8 @@
       <c r="H10" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I10" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>7</v>
+      <c r="I10" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>29</v>
@@ -19712,9 +19616,8 @@
       <c r="H11" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I11" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>8</v>
+      <c r="I11" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>29</v>
@@ -19760,9 +19663,8 @@
       <c r="H12" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I12" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>9</v>
+      <c r="I12" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>29</v>
@@ -19808,9 +19710,8 @@
       <c r="H13" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I13" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>10</v>
+      <c r="I13" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>29</v>
@@ -19856,9 +19757,8 @@
       <c r="H14" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I14" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>11</v>
+      <c r="I14" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>29</v>
@@ -19904,9 +19804,8 @@
       <c r="H15" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I15" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>12</v>
+      <c r="I15" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>29</v>
@@ -19952,9 +19851,8 @@
       <c r="H16" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I16" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>13</v>
+      <c r="I16" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>29</v>
@@ -20000,9 +19898,8 @@
       <c r="H17" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I17" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>14</v>
+      <c r="I17" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>29</v>
@@ -20048,9 +19945,8 @@
       <c r="H18" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I18" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>15</v>
+      <c r="I18" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
@@ -20096,9 +19992,8 @@
       <c r="H19" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I19" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>16</v>
+      <c r="I19" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>29</v>
@@ -20144,9 +20039,8 @@
       <c r="H20" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I20" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>17</v>
+      <c r="I20" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>29</v>
@@ -20192,9 +20086,8 @@
       <c r="H21" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I21" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>18</v>
+      <c r="I21" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>29</v>
@@ -20240,9 +20133,8 @@
       <c r="H22" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I22" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>19</v>
+      <c r="I22" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>29</v>
@@ -20288,9 +20180,8 @@
       <c r="H23" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I23" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>20</v>
+      <c r="I23" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>29</v>
@@ -20336,9 +20227,8 @@
       <c r="H24" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I24" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>21</v>
+      <c r="I24" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>29</v>
@@ -20384,9 +20274,8 @@
       <c r="H25" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>22</v>
+      <c r="I25" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>29</v>
@@ -20432,9 +20321,8 @@
       <c r="H26" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I26" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>23</v>
+      <c r="I26" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>29</v>
@@ -20480,9 +20368,8 @@
       <c r="H27" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I27" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>24</v>
+      <c r="I27" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>29</v>
@@ -20528,9 +20415,8 @@
       <c r="H28" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I28" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>25</v>
+      <c r="I28" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>29</v>
@@ -20576,9 +20462,8 @@
       <c r="H29" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I29" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>26</v>
+      <c r="I29" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>29</v>
@@ -20624,9 +20509,8 @@
       <c r="H30" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I30" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>27</v>
+      <c r="I30" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>29</v>
@@ -20672,9 +20556,8 @@
       <c r="H31" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I31" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>28</v>
+      <c r="I31" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>29</v>
@@ -20720,9 +20603,8 @@
       <c r="H32" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I32" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>29</v>
+      <c r="I32" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>29</v>
@@ -20768,9 +20650,8 @@
       <c r="H33" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I33" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>30</v>
+      <c r="I33" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>29</v>
@@ -20816,9 +20697,8 @@
       <c r="H34" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I34" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>31</v>
+      <c r="I34" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>29</v>
@@ -20864,9 +20744,8 @@
       <c r="H35" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>32</v>
+      <c r="I35" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>29</v>
@@ -20912,9 +20791,8 @@
       <c r="H36" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>33</v>
+      <c r="I36" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>29</v>
@@ -20960,9 +20838,8 @@
       <c r="H37" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I37" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>34</v>
+      <c r="I37" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>29</v>
@@ -21008,9 +20885,8 @@
       <c r="H38" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I38" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>35</v>
+      <c r="I38" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>29</v>
@@ -21056,9 +20932,8 @@
       <c r="H39" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I39" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>36</v>
+      <c r="I39" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>29</v>
@@ -21104,9 +20979,8 @@
       <c r="H40" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I40" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>37</v>
+      <c r="I40" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>29</v>
@@ -21152,9 +21026,8 @@
       <c r="H41" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I41" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>38</v>
+      <c r="I41" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>29</v>
@@ -21200,9 +21073,8 @@
       <c r="H42" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I42" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>39</v>
+      <c r="I42" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>29</v>
@@ -21248,9 +21120,8 @@
       <c r="H43" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I43" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>40</v>
+      <c r="I43" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>29</v>
@@ -21296,9 +21167,8 @@
       <c r="H44" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I44" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>41</v>
+      <c r="I44" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>29</v>
@@ -21344,9 +21214,8 @@
       <c r="H45" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I45" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>42</v>
+      <c r="I45" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>29</v>
@@ -21392,9 +21261,8 @@
       <c r="H46" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I46" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>43</v>
+      <c r="I46" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>29</v>
@@ -21440,9 +21308,8 @@
       <c r="H47" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I47" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>44</v>
+      <c r="I47" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>29</v>
@@ -21488,9 +21355,8 @@
       <c r="H48" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I48" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>45</v>
+      <c r="I48" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>29</v>
@@ -21536,9 +21402,8 @@
       <c r="H49" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I49" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>46</v>
+      <c r="I49" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>29</v>
@@ -21584,9 +21449,8 @@
       <c r="H50" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I50" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>47</v>
+      <c r="I50" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>29</v>
@@ -21632,9 +21496,8 @@
       <c r="H51" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I51" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>48</v>
+      <c r="I51" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>29</v>
@@ -21680,9 +21543,8 @@
       <c r="H52" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I52" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>49</v>
+      <c r="I52" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>29</v>
@@ -21728,9 +21590,8 @@
       <c r="H53" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I53" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>50</v>
+      <c r="I53" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>29</v>
@@ -21776,9 +21637,8 @@
       <c r="H54" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I54" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>51</v>
+      <c r="I54" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>29</v>
@@ -21824,9 +21684,8 @@
       <c r="H55" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I55" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>52</v>
+      <c r="I55" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>29</v>
@@ -21872,9 +21731,8 @@
       <c r="H56" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I56" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>53</v>
+      <c r="I56" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>29</v>
@@ -21920,9 +21778,8 @@
       <c r="H57" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I57" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>54</v>
+      <c r="I57" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>29</v>
@@ -21968,9 +21825,8 @@
       <c r="H58" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I58" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>55</v>
+      <c r="I58" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>29</v>
@@ -22016,9 +21872,8 @@
       <c r="H59" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I59" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>56</v>
+      <c r="I59" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>29</v>
@@ -22064,9 +21919,8 @@
       <c r="H60" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I60" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>57</v>
+      <c r="I60" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>29</v>
@@ -22112,9 +21966,8 @@
       <c r="H61" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I61" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>58</v>
+      <c r="I61" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>29</v>
@@ -22160,9 +22013,8 @@
       <c r="H62" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I62" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>59</v>
+      <c r="I62" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>29</v>
@@ -22208,9 +22060,8 @@
       <c r="H63" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I63" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>60</v>
+      <c r="I63" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>29</v>
@@ -22256,9 +22107,8 @@
       <c r="H64" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I64" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>61</v>
+      <c r="I64" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>29</v>
@@ -22304,9 +22154,8 @@
       <c r="H65" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I65" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>62</v>
+      <c r="I65" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>29</v>
@@ -22352,9 +22201,8 @@
       <c r="H66" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I66" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>63</v>
+      <c r="I66" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>29</v>
@@ -22400,9 +22248,8 @@
       <c r="H67" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I67" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>64</v>
+      <c r="I67" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>29</v>
@@ -22448,9 +22295,8 @@
       <c r="H68" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I68" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>65</v>
+      <c r="I68" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>29</v>
@@ -22496,9 +22342,8 @@
       <c r="H69" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I69" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>66</v>
+      <c r="I69" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>29</v>
@@ -22544,9 +22389,8 @@
       <c r="H70" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I70" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>67</v>
+      <c r="I70" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>29</v>
@@ -22592,9 +22436,8 @@
       <c r="H71" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I71" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>68</v>
+      <c r="I71" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>29</v>
@@ -22640,9 +22483,8 @@
       <c r="H72" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I72" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>69</v>
+      <c r="I72" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>29</v>
@@ -22688,9 +22530,8 @@
       <c r="H73" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I73" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>70</v>
+      <c r="I73" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>29</v>
@@ -22736,9 +22577,8 @@
       <c r="H74" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I74" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>71</v>
+      <c r="I74" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>29</v>
@@ -22784,9 +22624,8 @@
       <c r="H75" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I75" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>72</v>
+      <c r="I75" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>29</v>
@@ -22832,9 +22671,8 @@
       <c r="H76" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I76" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>73</v>
+      <c r="I76" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>29</v>
@@ -22880,9 +22718,8 @@
       <c r="H77" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I77" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>74</v>
+      <c r="I77" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>29</v>
@@ -22928,9 +22765,8 @@
       <c r="H78" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I78" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>75</v>
+      <c r="I78" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>29</v>
@@ -22976,9 +22812,8 @@
       <c r="H79" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I79" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>76</v>
+      <c r="I79" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>29</v>
@@ -23024,9 +22859,8 @@
       <c r="H80" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I80" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>77</v>
+      <c r="I80" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>29</v>
@@ -23072,9 +22906,8 @@
       <c r="H81" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I81" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>78</v>
+      <c r="I81" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>29</v>
@@ -23120,9 +22953,8 @@
       <c r="H82" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I82" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>79</v>
+      <c r="I82" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>29</v>
@@ -23168,9 +23000,8 @@
       <c r="H83" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I83" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>80</v>
+      <c r="I83" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>29</v>
@@ -23216,9 +23047,8 @@
       <c r="H84" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I84" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>81</v>
+      <c r="I84" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>29</v>
@@ -23264,9 +23094,8 @@
       <c r="H85" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I85" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>82</v>
+      <c r="I85" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>29</v>
@@ -23312,9 +23141,8 @@
       <c r="H86" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I86" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>83</v>
+      <c r="I86" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>29</v>
@@ -23360,9 +23188,8 @@
       <c r="H87" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I87" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>84</v>
+      <c r="I87" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>29</v>
@@ -23408,9 +23235,8 @@
       <c r="H88" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I88" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>85</v>
+      <c r="I88" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>29</v>
@@ -23456,9 +23282,8 @@
       <c r="H89" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>86</v>
+      <c r="I89" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>29</v>
@@ -23504,9 +23329,8 @@
       <c r="H90" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I90" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>87</v>
+      <c r="I90" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>29</v>
@@ -23552,9 +23376,8 @@
       <c r="H91" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I91" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>88</v>
+      <c r="I91" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>29</v>
@@ -23600,9 +23423,8 @@
       <c r="H92" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I92" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>89</v>
+      <c r="I92" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>29</v>
@@ -23648,9 +23470,8 @@
       <c r="H93" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I93" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>90</v>
+      <c r="I93" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>29</v>
@@ -23696,9 +23517,8 @@
       <c r="H94" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I94" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>91</v>
+      <c r="I94" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>29</v>
@@ -23744,9 +23564,8 @@
       <c r="H95" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I95" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>92</v>
+      <c r="I95" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>29</v>
@@ -23792,9 +23611,8 @@
       <c r="H96" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I96" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>93</v>
+      <c r="I96" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>29</v>
@@ -23840,9 +23658,8 @@
       <c r="H97" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I97" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>94</v>
+      <c r="I97" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>29</v>
@@ -23888,9 +23705,8 @@
       <c r="H98" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I98" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>95</v>
+      <c r="I98" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>29</v>
@@ -23936,9 +23752,8 @@
       <c r="H99" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I99" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>96</v>
+      <c r="I99" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>29</v>
@@ -23984,9 +23799,8 @@
       <c r="H100" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I100" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>97</v>
+      <c r="I100" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>29</v>
@@ -24032,9 +23846,8 @@
       <c r="H101" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I101" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>98</v>
+      <c r="I101" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>29</v>
@@ -24080,9 +23893,8 @@
       <c r="H102" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I102" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>99</v>
+      <c r="I102" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>29</v>
@@ -24128,9 +23940,8 @@
       <c r="H103" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I103" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>100</v>
+      <c r="I103" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>29</v>
@@ -24176,9 +23987,8 @@
       <c r="H104" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I104" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>101</v>
+      <c r="I104" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>29</v>
@@ -24224,9 +24034,8 @@
       <c r="H105" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I105" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>102</v>
+      <c r="I105" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>29</v>
@@ -24272,9 +24081,8 @@
       <c r="H106" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I106" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>103</v>
+      <c r="I106" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>29</v>
@@ -24320,9 +24128,8 @@
       <c r="H107" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I107" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>104</v>
+      <c r="I107" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>29</v>
@@ -24368,9 +24175,8 @@
       <c r="H108" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I108" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>105</v>
+      <c r="I108" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>29</v>
@@ -24416,9 +24222,8 @@
       <c r="H109" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I109" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>106</v>
+      <c r="I109" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>29</v>
@@ -24464,9 +24269,8 @@
       <c r="H110" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I110" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>107</v>
+      <c r="I110" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>29</v>
@@ -24512,9 +24316,8 @@
       <c r="H111" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I111" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>108</v>
+      <c r="I111" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>29</v>
@@ -24560,9 +24363,8 @@
       <c r="H112" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I112" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>109</v>
+      <c r="I112" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>29</v>
@@ -24608,9 +24410,8 @@
       <c r="H113" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I113" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>110</v>
+      <c r="I113" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>29</v>
@@ -24656,9 +24457,8 @@
       <c r="H114" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I114" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>111</v>
+      <c r="I114" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>29</v>
@@ -24704,9 +24504,8 @@
       <c r="H115" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I115" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>112</v>
+      <c r="I115" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>29</v>
@@ -24752,9 +24551,8 @@
       <c r="H116" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I116" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>113</v>
+      <c r="I116" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>29</v>
@@ -24800,9 +24598,8 @@
       <c r="H117" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I117" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>114</v>
+      <c r="I117" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>29</v>
@@ -24848,9 +24645,8 @@
       <c r="H118" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I118" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>115</v>
+      <c r="I118" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>29</v>
@@ -24896,9 +24692,8 @@
       <c r="H119" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I119" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>116</v>
+      <c r="I119" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>29</v>
@@ -24944,9 +24739,8 @@
       <c r="H120" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I120" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>117</v>
+      <c r="I120" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>29</v>
@@ -24992,9 +24786,8 @@
       <c r="H121" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I121" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>118</v>
+      <c r="I121" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>29</v>
@@ -25040,9 +24833,8 @@
       <c r="H122" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I122" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>119</v>
+      <c r="I122" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>29</v>
@@ -25088,9 +24880,8 @@
       <c r="H123" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I123" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>120</v>
+      <c r="I123" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>29</v>
@@ -25136,9 +24927,8 @@
       <c r="H124" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I124" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>121</v>
+      <c r="I124" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>29</v>
@@ -25184,9 +24974,8 @@
       <c r="H125" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I125" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>122</v>
+      <c r="I125" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>29</v>
@@ -25232,9 +25021,8 @@
       <c r="H126" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I126" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>123</v>
+      <c r="I126" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>29</v>
@@ -25280,9 +25068,8 @@
       <c r="H127" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I127" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>124</v>
+      <c r="I127" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>29</v>
@@ -25328,9 +25115,8 @@
       <c r="H128" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I128" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>125</v>
+      <c r="I128" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>29</v>
@@ -25376,9 +25162,8 @@
       <c r="H129" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I129" s="3">
-        <f>(Tabla7[[#This Row],[idNacionalidad]])</f>
-        <v>126</v>
+      <c r="I129" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>29</v>
@@ -26091,6 +25876,1524 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N243"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="13" t="str">
+        <f>CONCATENATE(B4,D4,B4)</f>
+        <v>'ingles'</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="13" t="str">
+        <f>CONCATENATE(B5,D5,B5)</f>
+        <v>'espanol'</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f>CONCATENATE(B6,D6,B6)</f>
+        <v>'italiano'</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f>CONCATENATE(B7,D7,B7)</f>
+        <v>'frances'</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="13" t="str">
+        <f>CONCATENATE(B8,D8,B8)</f>
+        <v>'portugues'</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f>CONCATENATE(B9,D9,B9)</f>
+        <v>'ruso'</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f>CONCATENATE(B10,D10,B10)</f>
+        <v>'aleman'</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="13" t="str">
+        <f>CONCATENATE(B11,D11,B11)</f>
+        <v>'coreano'</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f>CONCATENATE(B12,D12,B12)</f>
+        <v>'arabe'</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="13" t="str">
+        <f>CONCATENATE(B13,D13,B13)</f>
+        <v>'bengali'</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f>CONCATENATE(B14,D14,B14)</f>
+        <v>'japones'</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f>CONCATENATE(B15,D15,B15)</f>
+        <v>'ucraniano'</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/trunk/inserts con tabla.xlsx
+++ b/trunk/inserts con tabla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumento" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Lugar" sheetId="3" r:id="rId3"/>
     <sheet name="Nacionalidad" sheetId="4" r:id="rId4"/>
     <sheet name="Idioma" sheetId="5" r:id="rId5"/>
+    <sheet name="Departamento" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lugar!$E$1:$E$243</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5641" uniqueCount="494">
   <si>
     <t>idInstrumento</t>
   </si>
@@ -1277,13 +1278,244 @@
   </si>
   <si>
     <t>seqInstrumento.nextval</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>finanzas</t>
+  </si>
+  <si>
+    <t>recursos humanos</t>
+  </si>
+  <si>
+    <t>limpieza</t>
+  </si>
+  <si>
+    <t>surpevision</t>
+  </si>
+  <si>
+    <t>produccion</t>
+  </si>
+  <si>
+    <t>sonido</t>
+  </si>
+  <si>
+    <t>iluminacion</t>
+  </si>
+  <si>
+    <t>de canto</t>
+  </si>
+  <si>
+    <t>de musica</t>
+  </si>
+  <si>
+    <t>idDepartamento</t>
+  </si>
+  <si>
+    <t>nombreDepartamento</t>
+  </si>
+  <si>
+    <t>insert into DEPARTAMENTO values (</t>
+  </si>
+  <si>
+    <t>seqDepartamento.nextval</t>
+  </si>
+  <si>
+    <t>taquillero</t>
+  </si>
+  <si>
+    <t>promotor</t>
+  </si>
+  <si>
+    <t>publicista</t>
+  </si>
+  <si>
+    <t>idCargo</t>
+  </si>
+  <si>
+    <t>nombreCargo</t>
+  </si>
+  <si>
+    <t>fkDepartamento</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>de baile</t>
+  </si>
+  <si>
+    <t>aseador</t>
+  </si>
+  <si>
+    <t>coordinador de limpieza</t>
+  </si>
+  <si>
+    <t>fkCargo</t>
+  </si>
+  <si>
+    <t>gerente de ventas</t>
+  </si>
+  <si>
+    <t>coordinador de ventas</t>
+  </si>
+  <si>
+    <t>coordinador de finanzas</t>
+  </si>
+  <si>
+    <t>gerente de finanzas</t>
+  </si>
+  <si>
+    <t>gerente de limpieza</t>
+  </si>
+  <si>
+    <t>coordinador de recursos humanos</t>
+  </si>
+  <si>
+    <t>administrador de reclutamiento</t>
+  </si>
+  <si>
+    <t>administrador de seleccion</t>
+  </si>
+  <si>
+    <t>administrador de capacitacion</t>
+  </si>
+  <si>
+    <t>gerente de recursos humanos</t>
+  </si>
+  <si>
+    <t>presidente</t>
+  </si>
+  <si>
+    <t>vicepresidente</t>
+  </si>
+  <si>
+    <t>gerente general</t>
+  </si>
+  <si>
+    <t>tecnologico</t>
+  </si>
+  <si>
+    <t>supervision</t>
+  </si>
+  <si>
+    <t>director de escenografia</t>
+  </si>
+  <si>
+    <t>coordinador de produccion</t>
+  </si>
+  <si>
+    <t>gerente de produccion</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>coordinador de iluminacion</t>
+  </si>
+  <si>
+    <t>gerente de iluminacion</t>
+  </si>
+  <si>
+    <t>coordinador de sonido</t>
+  </si>
+  <si>
+    <t>gerente de sonido</t>
+  </si>
+  <si>
+    <t>ingeniero en sonido</t>
+  </si>
+  <si>
+    <t>supervisor de equipos</t>
+  </si>
+  <si>
+    <t>tecnico en sonido</t>
+  </si>
+  <si>
+    <t>coordinador de canto</t>
+  </si>
+  <si>
+    <t>gerente de canto</t>
+  </si>
+  <si>
+    <t>entrenador vocal</t>
+  </si>
+  <si>
+    <t>canto</t>
+  </si>
+  <si>
+    <t>coordinador de musica</t>
+  </si>
+  <si>
+    <t>gerente de musica</t>
+  </si>
+  <si>
+    <t>musico</t>
+  </si>
+  <si>
+    <t>entrenador musical</t>
+  </si>
+  <si>
+    <t>coordinador de baile</t>
+  </si>
+  <si>
+    <t>gerente de baile</t>
+  </si>
+  <si>
+    <t>coreografo</t>
+  </si>
+  <si>
+    <t>bailarin</t>
+  </si>
+  <si>
+    <t>baile</t>
+  </si>
+  <si>
+    <t>disenador de iluminacion</t>
+  </si>
+  <si>
+    <t>tecnico en iluminacion</t>
+  </si>
+  <si>
+    <t>coordinador tecnologico</t>
+  </si>
+  <si>
+    <t>gerente tecnologico</t>
+  </si>
+  <si>
+    <t>administrador de base de datos</t>
+  </si>
+  <si>
+    <t>administrador de redes</t>
+  </si>
+  <si>
+    <t>administrador web</t>
+  </si>
+  <si>
+    <t>tecnico</t>
+  </si>
+  <si>
+    <t>insert into CARGO values (</t>
+  </si>
+  <si>
+    <t>seqCargo.nextval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1327,6 +1559,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1390,7 +1628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1464,8 +1702,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,8 +1786,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="109">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1550,6 +1852,24 @@
     <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1586,9 +1906,27 @@
     <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1618,6 +1956,18 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -1874,48 +2224,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D29" totalsRowShown="0">
   <autoFilter ref="C3:D29"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="idInstrumento" dataDxfId="26"/>
-    <tableColumn id="2" name="nombreInstrumento" dataDxfId="25"/>
+    <tableColumn id="1" name="idInstrumento" dataDxfId="30"/>
+    <tableColumn id="2" name="nombreInstrumento" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="D3:G22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idVoz" dataDxfId="20"/>
-    <tableColumn id="2" name="nombreVoz" dataDxfId="19"/>
-    <tableColumn id="3" name="descripcionVoz" dataDxfId="18"/>
-    <tableColumn id="4" name="fkVoz" dataDxfId="17"/>
+    <tableColumn id="1" name="idVoz" dataDxfId="24"/>
+    <tableColumn id="2" name="nombreVoz" dataDxfId="23"/>
+    <tableColumn id="3" name="descripcionVoz" dataDxfId="22"/>
+    <tableColumn id="4" name="fkVoz" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="D3:H247"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="idLugar" dataDxfId="14"/>
-    <tableColumn id="2" name="nombreLugar" dataDxfId="13"/>
-    <tableColumn id="3" name="tipoLugar" dataDxfId="12"/>
-    <tableColumn id="4" name="banderaLugar" dataDxfId="11"/>
-    <tableColumn id="5" name="fkLugar" dataDxfId="10"/>
+    <tableColumn id="1" name="idLugar" dataDxfId="18"/>
+    <tableColumn id="2" name="nombreLugar" dataDxfId="17"/>
+    <tableColumn id="3" name="tipoLugar" dataDxfId="16"/>
+    <tableColumn id="4" name="banderaLugar" dataDxfId="15"/>
+    <tableColumn id="5" name="fkLugar" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="C3:F129"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idNacionalidad" dataDxfId="7"/>
-    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="6"/>
-    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="5"/>
-    <tableColumn id="4" name="fkPais" dataDxfId="4"/>
+    <tableColumn id="1" name="idNacionalidad" dataDxfId="11"/>
+    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="10"/>
+    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="9"/>
+    <tableColumn id="4" name="fkPais" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1925,8 +2275,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:D15" totalsRowShown="0">
   <autoFilter ref="C3:D15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="idIdioma" dataDxfId="3"/>
+    <tableColumn id="1" name="idIdioma" dataDxfId="7"/>
     <tableColumn id="2" name="nombreIdioma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:D15" totalsRowShown="0">
+  <autoFilter ref="C3:D15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="idDepartamento" dataDxfId="6"/>
+    <tableColumn id="2" name="nombreDepartamento"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C17:F70" totalsRowShown="0">
+  <autoFilter ref="C17:F70"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="idCargo" dataDxfId="5"/>
+    <tableColumn id="2" name="nombreCargo"/>
+    <tableColumn id="3" name="fkDepartamento" dataDxfId="4"/>
+    <tableColumn id="4" name="fkCargo" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2256,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4296,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4309,7 +4683,7 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="19" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
@@ -4362,7 +4736,7 @@
       <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -4410,7 +4784,7 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -4457,7 +4831,7 @@
       <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -4505,7 +4879,7 @@
       <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -4553,7 +4927,7 @@
       <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -4600,7 +4974,7 @@
       <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -4648,7 +5022,7 @@
       <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -4696,7 +5070,7 @@
       <c r="I11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -4744,7 +5118,7 @@
       <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -4792,7 +5166,7 @@
       <c r="I13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -4840,7 +5214,7 @@
       <c r="I14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -4888,7 +5262,7 @@
       <c r="I15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -4936,7 +5310,7 @@
       <c r="I16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -4984,7 +5358,7 @@
       <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -5032,7 +5406,7 @@
       <c r="I18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -5080,7 +5454,7 @@
       <c r="I19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -5128,7 +5502,7 @@
       <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -5176,7 +5550,7 @@
       <c r="I21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -5224,7 +5598,7 @@
       <c r="I22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="19" t="s">
         <v>415</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -25893,7 +26267,7 @@
   <dimension ref="B3:N243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27403,4 +27777,4022 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P243"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="3" style="5" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE(B4,Tabla2[[#This Row],[nombreDepartamento]],B4)</f>
+        <v>'ventas'</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f>CONCATENATE(B5,Tabla2[[#This Row],[nombreDepartamento]],B5)</f>
+        <v>'finanzas'</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f>CONCATENATE(B6,Tabla2[[#This Row],[nombreDepartamento]],B6)</f>
+        <v>'recursos humanos'</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f>CONCATENATE(B7,Tabla2[[#This Row],[nombreDepartamento]],B7)</f>
+        <v>'limpieza'</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="22">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f>CONCATENATE(B8,Tabla2[[#This Row],[nombreDepartamento]],B8)</f>
+        <v>'surpevision'</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f>CONCATENATE(B9,Tabla2[[#This Row],[nombreDepartamento]],B9)</f>
+        <v>'produccion'</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="22">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f>CONCATENATE(B10,Tabla2[[#This Row],[nombreDepartamento]],B10)</f>
+        <v>'sonido'</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f>CONCATENATE(B11,Tabla2[[#This Row],[nombreDepartamento]],B11)</f>
+        <v>'iluminacion'</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="22">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f>CONCATENATE(B12,Tabla2[[#This Row],[nombreDepartamento]],B12)</f>
+        <v>'de canto'</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f>CONCATENATE(B13,Tabla2[[#This Row],[nombreDepartamento]],B13)</f>
+        <v>'de musica'</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="23">
+        <v>11</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f>CONCATENATE(B14,Tabla2[[#This Row],[nombreDepartamento]],B14)</f>
+        <v>'de baile'</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23">
+        <v>12</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f>CONCATENATE(B15,Tabla2[[#This Row],[nombreDepartamento]],B15)</f>
+        <v>'tecnologico'</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" t="s">
+        <v>493</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="str">
+        <f>CONCATENATE(B18,D18,B18)</f>
+        <v>'presidente'</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="1">
+        <f>E18</f>
+        <v>5</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>null</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="27"/>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="12" t="str">
+        <f t="shared" ref="K19:K70" si="0">CONCATENATE(B19,D19,B19)</f>
+        <v>'vicepresidente'</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19:M70" si="1">E19</f>
+        <v>5</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="27"/>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente general'</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de ventas'</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="28"/>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de ventas'</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>4</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="28"/>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'taquillero'</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>5</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="28"/>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'promotor'</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>5</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="28"/>
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'publicista'</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>5</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="22">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de finanzas'</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="26"/>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="22">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de finanzas'</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>9</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="26"/>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'contador'</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>10</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="26"/>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="22">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador'</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>10</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="26"/>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="22">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'auditor'</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>10</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="22">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de limpieza'</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="25"/>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>448</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="22">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de limpieza'</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>14</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="25"/>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="22">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'aseador'</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>15</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>449</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de recursos humanos'</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="29"/>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>453</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="22">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de recursos humanos'</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>17</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="29"/>
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>450</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="22">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador de reclutamiento'</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>18</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="29"/>
+      <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>451</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="22">
+        <v>18</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador de seleccion'</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>18</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="29"/>
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>452</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="22">
+        <v>18</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador de capacitacion'</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>18</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de produccion'</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="25"/>
+      <c r="B40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="22">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de produccion'</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>22</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="25"/>
+      <c r="B41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>462</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="22">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'director'</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>23</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="25"/>
+      <c r="B42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>25</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42" s="30">
+        <v>6</v>
+      </c>
+      <c r="F42" s="30">
+        <v>23</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'director de escenografia'</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>23</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="25"/>
+      <c r="B43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>26</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" s="30">
+        <v>6</v>
+      </c>
+      <c r="F43" s="30">
+        <v>23</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'autor'</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>23</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>466</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de sonido'</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="31"/>
+      <c r="B45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>467</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>27</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de sonido'</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>27</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="31"/>
+      <c r="B46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>28</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'ingeniero en sonido'</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>28</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="31"/>
+      <c r="B47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>28</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'supervisor de equipos'</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>28</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="31"/>
+      <c r="B48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>28</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'tecnico en sonido'</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>28</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="1">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de canto'</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="25"/>
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>472</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>31</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de canto'</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>31</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="25"/>
+      <c r="B51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1">
+        <v>32</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'cantante'</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>32</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="25"/>
+      <c r="B52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="1">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>32</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'entrenador vocal'</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>32</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de musica'</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="31"/>
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>36</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de musica'</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>36</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="31"/>
+      <c r="B55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>477</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>37</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'musico'</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>37</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="31"/>
+      <c r="B56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>478</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>37</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'entrenador musical'</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>37</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="1">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>479</v>
+      </c>
+      <c r="E57" s="1">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de baile'</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="25"/>
+      <c r="B58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="1">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>480</v>
+      </c>
+      <c r="E58" s="1">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1">
+        <v>39</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de baile'</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>39</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="25"/>
+      <c r="B59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>481</v>
+      </c>
+      <c r="E59" s="1">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1">
+        <v>38</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coreografo'</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>38</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="25"/>
+      <c r="B60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60" s="30">
+        <v>11</v>
+      </c>
+      <c r="F60" s="30">
+        <v>38</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'bailarin'</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>38</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>464</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador de iluminacion'</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="31"/>
+      <c r="B62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>465</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente de iluminacion'</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>44</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="31"/>
+      <c r="B63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>484</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>45</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'disenador de iluminacion'</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>45</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="31"/>
+      <c r="B64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1">
+        <v>47</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E64" s="30">
+        <v>8</v>
+      </c>
+      <c r="F64" s="30">
+        <v>45</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'tecnico en iluminacion'</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>45</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'coordinador tecnologico'</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>3</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="25"/>
+      <c r="B66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="1">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>487</v>
+      </c>
+      <c r="E66" s="1">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1">
+        <v>48</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gerente tecnologico'</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>48</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="25"/>
+      <c r="B67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>488</v>
+      </c>
+      <c r="E67" s="1">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1">
+        <v>49</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador de base de datos'</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>49</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="25"/>
+      <c r="B68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="1">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>489</v>
+      </c>
+      <c r="E68" s="1">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1">
+        <v>49</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador de redes'</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>49</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="25"/>
+      <c r="B69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="1">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="1">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1">
+        <v>49</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'administrador web'</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>49</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="25"/>
+      <c r="B70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="1">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>491</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1">
+        <v>49</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>'tecnico'</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="1">
+        <f>Tabla3[[#This Row],[fkCargo]]</f>
+        <v>49</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="B71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="22"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="B72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="22"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="B73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="22"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="B74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="22"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="B75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="22"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="B76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="22"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="B77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="22"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="B78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="B79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="22"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="B80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="22"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="22"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="22"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="22"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="22"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="22"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="22"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="22"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="22"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="22"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="22"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="22"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="22"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="22"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="22"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="22"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="22"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="22"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="22"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="22"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="22"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="22"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="22"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="22"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="22"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="22"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="22"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="22"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="22"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="22"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="22"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="22"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="22"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="22"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="22"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="22"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="22"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="22"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="22"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="22"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="22"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="22"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="22"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="22"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="22"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="22"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="22"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="22"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="22"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="22"/>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="22"/>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="22"/>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="22"/>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="22"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="22"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="22"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="22"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="22"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="22"/>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="22"/>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="22"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="22"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="22"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="22"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="22"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="22"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="22"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="22"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="22"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="22"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="22"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="22"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="22"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="22"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="22"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="22"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="22"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="22"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="22"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="22"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="22"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="22"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="22"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="22"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="22"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="22"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="22"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="22"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="22"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="22"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="22"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="22"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="22"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="22"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="22"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="22"/>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="22"/>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="22"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="22"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="22"/>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="22"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="22"/>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="22"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="22"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="22"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="22"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="22"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="22"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="22"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="22"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193" s="22"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="22"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="22"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="22"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="22"/>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="22"/>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="22"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="22"/>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="22"/>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="22"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="22"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="22"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="22"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" s="22"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="22"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="22"/>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" s="22"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="22"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" s="22"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="22"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="22"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="22"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215" s="22"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="22"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217" s="22"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="22"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="22"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" s="22"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="22"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222" s="22"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223" s="22"/>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C224" s="22"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="22"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="22"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="22"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="22"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="22"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" s="22"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" s="22"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="22"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="22"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="22"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" s="22"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="22"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="22"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="22"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C239" s="22"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240" s="22"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" s="22"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="22"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/inserts con tabla.xlsx
+++ b/trunk/inserts con tabla.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Lugar" sheetId="3" r:id="rId3"/>
     <sheet name="Nacionalidad" sheetId="4" r:id="rId4"/>
     <sheet name="Idioma" sheetId="5" r:id="rId5"/>
-    <sheet name="Departamento" sheetId="6" r:id="rId6"/>
+    <sheet name="Dpto Cargo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lugar!$E$1:$E$243</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5641" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5659" uniqueCount="498">
   <si>
     <t>idInstrumento</t>
   </si>
@@ -1256,6 +1256,12 @@
     <t>bengali</t>
   </si>
   <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
     <t>idIdioma</t>
   </si>
   <si>
@@ -1509,6 +1515,12 @@
   </si>
   <si>
     <t>seqCargo.nextval</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>nombrado</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1938,13 @@
     <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2224,48 +2242,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D29" totalsRowShown="0">
   <autoFilter ref="C3:D29"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="idInstrumento" dataDxfId="30"/>
-    <tableColumn id="2" name="nombreInstrumento" dataDxfId="29"/>
+    <tableColumn id="1" name="idInstrumento" dataDxfId="32"/>
+    <tableColumn id="2" name="nombreInstrumento" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="D3:G22" totalsRowShown="0" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="D3:G22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idVoz" dataDxfId="24"/>
-    <tableColumn id="2" name="nombreVoz" dataDxfId="23"/>
-    <tableColumn id="3" name="descripcionVoz" dataDxfId="22"/>
-    <tableColumn id="4" name="fkVoz" dataDxfId="21"/>
+    <tableColumn id="1" name="idVoz" dataDxfId="26"/>
+    <tableColumn id="2" name="nombreVoz" dataDxfId="25"/>
+    <tableColumn id="3" name="descripcionVoz" dataDxfId="24"/>
+    <tableColumn id="4" name="fkVoz" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="D3:H247" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="D3:H247"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="idLugar" dataDxfId="18"/>
-    <tableColumn id="2" name="nombreLugar" dataDxfId="17"/>
-    <tableColumn id="3" name="tipoLugar" dataDxfId="16"/>
-    <tableColumn id="4" name="banderaLugar" dataDxfId="15"/>
-    <tableColumn id="5" name="fkLugar" dataDxfId="14"/>
+    <tableColumn id="1" name="idLugar" dataDxfId="20"/>
+    <tableColumn id="2" name="nombreLugar" dataDxfId="19"/>
+    <tableColumn id="3" name="tipoLugar" dataDxfId="18"/>
+    <tableColumn id="4" name="banderaLugar" dataDxfId="17"/>
+    <tableColumn id="5" name="fkLugar" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C3:F129" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="C3:F129"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idNacionalidad" dataDxfId="11"/>
-    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="10"/>
-    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="9"/>
-    <tableColumn id="4" name="fkPais" dataDxfId="8"/>
+    <tableColumn id="1" name="idNacionalidad" dataDxfId="13"/>
+    <tableColumn id="2" name="nombreNacionalidad" dataDxfId="12"/>
+    <tableColumn id="3" name="sexoNacionalidad" dataDxfId="11"/>
+    <tableColumn id="4" name="fkPais" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2275,7 +2293,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:D15" totalsRowShown="0">
   <autoFilter ref="C3:D15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="idIdioma" dataDxfId="7"/>
+    <tableColumn id="1" name="idIdioma" dataDxfId="9"/>
     <tableColumn id="2" name="nombreIdioma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2283,11 +2301,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:D15" totalsRowShown="0">
-  <autoFilter ref="C3:D15"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="idDepartamento" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:F15" totalsRowShown="0">
+  <autoFilter ref="C3:F15"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="idDepartamento" dataDxfId="8"/>
     <tableColumn id="2" name="nombreDepartamento"/>
+    <tableColumn id="3" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="4" name="Columna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2297,10 +2317,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C17:F70" totalsRowShown="0">
   <autoFilter ref="C17:F70"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="idCargo" dataDxfId="5"/>
+    <tableColumn id="1" name="idCargo" dataDxfId="7"/>
     <tableColumn id="2" name="nombreCargo"/>
-    <tableColumn id="3" name="fkDepartamento" dataDxfId="4"/>
-    <tableColumn id="4" name="fkCargo" dataDxfId="3"/>
+    <tableColumn id="3" name="fkDepartamento" dataDxfId="6"/>
+    <tableColumn id="4" name="fkCargo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2671,7 +2691,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>29</v>
@@ -2698,7 +2718,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>29</v>
@@ -2725,7 +2745,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
@@ -2752,7 +2772,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>29</v>
@@ -2779,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
@@ -2806,7 +2826,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
@@ -2833,7 +2853,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
@@ -2860,7 +2880,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>29</v>
@@ -2887,7 +2907,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
@@ -2914,7 +2934,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
@@ -2941,7 +2961,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
@@ -2968,7 +2988,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>29</v>
@@ -2995,7 +3015,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>29</v>
@@ -3022,7 +3042,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>29</v>
@@ -3049,7 +3069,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>29</v>
@@ -3076,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>29</v>
@@ -3103,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>29</v>
@@ -3130,7 +3150,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>29</v>
@@ -3157,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>29</v>
@@ -3184,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>29</v>
@@ -3211,7 +3231,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>29</v>
@@ -3238,7 +3258,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>29</v>
@@ -3265,7 +3285,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>29</v>
@@ -3292,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>29</v>
@@ -3319,7 +3339,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>29</v>
@@ -3346,7 +3366,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>29</v>
@@ -4645,13 +4665,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I29">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D29">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4737,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>29</v>
@@ -4785,7 +4805,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>29</v>
@@ -4832,7 +4852,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>29</v>
@@ -4880,7 +4900,7 @@
         <v>32</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>29</v>
@@ -4928,7 +4948,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>29</v>
@@ -4975,7 +4995,7 @@
         <v>32</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>29</v>
@@ -5023,7 +5043,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>29</v>
@@ -5071,7 +5091,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>29</v>
@@ -5119,7 +5139,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>29</v>
@@ -5167,7 +5187,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>29</v>
@@ -5215,7 +5235,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>29</v>
@@ -5263,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>29</v>
@@ -5311,7 +5331,7 @@
         <v>32</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>29</v>
@@ -5359,7 +5379,7 @@
         <v>32</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>29</v>
@@ -5407,7 +5427,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>29</v>
@@ -5455,7 +5475,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>29</v>
@@ -5503,7 +5523,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>29</v>
@@ -5551,7 +5571,7 @@
         <v>32</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>29</v>
@@ -5599,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>29</v>
@@ -7038,7 +7058,7 @@
         <v>374</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
@@ -7090,7 +7110,7 @@
         <v>374</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>29</v>
@@ -7142,7 +7162,7 @@
         <v>374</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>29</v>
@@ -7194,7 +7214,7 @@
         <v>374</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>29</v>
@@ -7246,7 +7266,7 @@
         <v>374</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>29</v>
@@ -7298,7 +7318,7 @@
         <v>374</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>29</v>
@@ -7350,7 +7370,7 @@
         <v>374</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>29</v>
@@ -7402,7 +7422,7 @@
         <v>374</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
@@ -7454,7 +7474,7 @@
         <v>374</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>29</v>
@@ -7506,7 +7526,7 @@
         <v>374</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>29</v>
@@ -7558,7 +7578,7 @@
         <v>374</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>29</v>
@@ -7610,7 +7630,7 @@
         <v>374</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>29</v>
@@ -7662,7 +7682,7 @@
         <v>374</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>29</v>
@@ -7714,7 +7734,7 @@
         <v>374</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>29</v>
@@ -7766,7 +7786,7 @@
         <v>374</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>29</v>
@@ -7818,7 +7838,7 @@
         <v>374</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>29</v>
@@ -7870,7 +7890,7 @@
         <v>374</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>29</v>
@@ -7922,7 +7942,7 @@
         <v>374</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>29</v>
@@ -7974,7 +7994,7 @@
         <v>374</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
@@ -8026,7 +8046,7 @@
         <v>374</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>29</v>
@@ -8078,7 +8098,7 @@
         <v>374</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>29</v>
@@ -8130,7 +8150,7 @@
         <v>374</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>29</v>
@@ -8182,7 +8202,7 @@
         <v>374</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>29</v>
@@ -8234,7 +8254,7 @@
         <v>374</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>29</v>
@@ -8286,7 +8306,7 @@
         <v>374</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>29</v>
@@ -8338,7 +8358,7 @@
         <v>374</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>29</v>
@@ -8390,7 +8410,7 @@
         <v>374</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>29</v>
@@ -8442,7 +8462,7 @@
         <v>374</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>29</v>
@@ -8494,7 +8514,7 @@
         <v>374</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>29</v>
@@ -8546,7 +8566,7 @@
         <v>374</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>29</v>
@@ -8598,7 +8618,7 @@
         <v>374</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>29</v>
@@ -8650,7 +8670,7 @@
         <v>374</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>29</v>
@@ -8702,7 +8722,7 @@
         <v>374</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>29</v>
@@ -8754,7 +8774,7 @@
         <v>374</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>29</v>
@@ -8806,7 +8826,7 @@
         <v>374</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>29</v>
@@ -8858,7 +8878,7 @@
         <v>374</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
@@ -8910,7 +8930,7 @@
         <v>374</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>29</v>
@@ -8962,7 +8982,7 @@
         <v>374</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>29</v>
@@ -9014,7 +9034,7 @@
         <v>374</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>29</v>
@@ -9066,7 +9086,7 @@
         <v>374</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>29</v>
@@ -9118,7 +9138,7 @@
         <v>374</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>29</v>
@@ -9170,7 +9190,7 @@
         <v>374</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>29</v>
@@ -9222,7 +9242,7 @@
         <v>374</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>29</v>
@@ -9274,7 +9294,7 @@
         <v>374</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>29</v>
@@ -9326,7 +9346,7 @@
         <v>374</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>29</v>
@@ -9378,7 +9398,7 @@
         <v>374</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>29</v>
@@ -9430,7 +9450,7 @@
         <v>374</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>29</v>
@@ -9482,7 +9502,7 @@
         <v>374</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>29</v>
@@ -9534,7 +9554,7 @@
         <v>374</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>29</v>
@@ -9586,7 +9606,7 @@
         <v>374</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>29</v>
@@ -9638,7 +9658,7 @@
         <v>374</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>29</v>
@@ -9690,7 +9710,7 @@
         <v>374</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>29</v>
@@ -9742,7 +9762,7 @@
         <v>374</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>29</v>
@@ -9794,7 +9814,7 @@
         <v>374</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>29</v>
@@ -9846,7 +9866,7 @@
         <v>374</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>29</v>
@@ -9898,7 +9918,7 @@
         <v>374</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>29</v>
@@ -9950,7 +9970,7 @@
         <v>374</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>29</v>
@@ -10002,7 +10022,7 @@
         <v>374</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>29</v>
@@ -10054,7 +10074,7 @@
         <v>374</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>29</v>
@@ -10106,7 +10126,7 @@
         <v>374</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>29</v>
@@ -10158,7 +10178,7 @@
         <v>374</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>29</v>
@@ -10210,7 +10230,7 @@
         <v>374</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>29</v>
@@ -10262,7 +10282,7 @@
         <v>374</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>29</v>
@@ -10314,7 +10334,7 @@
         <v>374</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>29</v>
@@ -10366,7 +10386,7 @@
         <v>374</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>29</v>
@@ -10418,7 +10438,7 @@
         <v>374</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>29</v>
@@ -10470,7 +10490,7 @@
         <v>374</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>29</v>
@@ -10522,7 +10542,7 @@
         <v>374</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>29</v>
@@ -10574,7 +10594,7 @@
         <v>374</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>29</v>
@@ -10626,7 +10646,7 @@
         <v>374</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>29</v>
@@ -10678,7 +10698,7 @@
         <v>374</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>29</v>
@@ -10730,7 +10750,7 @@
         <v>374</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>29</v>
@@ -10782,7 +10802,7 @@
         <v>374</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>29</v>
@@ -10834,7 +10854,7 @@
         <v>374</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>29</v>
@@ -10886,7 +10906,7 @@
         <v>374</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>29</v>
@@ -10938,7 +10958,7 @@
         <v>374</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>29</v>
@@ -10990,7 +11010,7 @@
         <v>374</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>29</v>
@@ -11042,7 +11062,7 @@
         <v>374</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>29</v>
@@ -11094,7 +11114,7 @@
         <v>374</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>29</v>
@@ -11146,7 +11166,7 @@
         <v>374</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>29</v>
@@ -11198,7 +11218,7 @@
         <v>374</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>29</v>
@@ -11250,7 +11270,7 @@
         <v>374</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>29</v>
@@ -11302,7 +11322,7 @@
         <v>374</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>29</v>
@@ -11354,7 +11374,7 @@
         <v>374</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>29</v>
@@ -11406,7 +11426,7 @@
         <v>374</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>29</v>
@@ -11458,7 +11478,7 @@
         <v>374</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>29</v>
@@ -11510,7 +11530,7 @@
         <v>374</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>29</v>
@@ -11562,7 +11582,7 @@
         <v>374</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>29</v>
@@ -11614,7 +11634,7 @@
         <v>374</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>29</v>
@@ -11666,7 +11686,7 @@
         <v>374</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>29</v>
@@ -11718,7 +11738,7 @@
         <v>374</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>29</v>
@@ -11770,7 +11790,7 @@
         <v>374</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>29</v>
@@ -11822,7 +11842,7 @@
         <v>374</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>29</v>
@@ -11874,7 +11894,7 @@
         <v>374</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>29</v>
@@ -11926,7 +11946,7 @@
         <v>374</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>29</v>
@@ -11978,7 +11998,7 @@
         <v>374</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>29</v>
@@ -12030,7 +12050,7 @@
         <v>374</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>29</v>
@@ -12082,7 +12102,7 @@
         <v>374</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>29</v>
@@ -12134,7 +12154,7 @@
         <v>374</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>29</v>
@@ -12186,7 +12206,7 @@
         <v>374</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>29</v>
@@ -12238,7 +12258,7 @@
         <v>374</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>29</v>
@@ -12290,7 +12310,7 @@
         <v>374</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>29</v>
@@ -12342,7 +12362,7 @@
         <v>374</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>29</v>
@@ -12394,7 +12414,7 @@
         <v>374</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>29</v>
@@ -12446,7 +12466,7 @@
         <v>374</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>29</v>
@@ -12498,7 +12518,7 @@
         <v>374</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>29</v>
@@ -12550,7 +12570,7 @@
         <v>374</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>29</v>
@@ -12602,7 +12622,7 @@
         <v>374</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>29</v>
@@ -12654,7 +12674,7 @@
         <v>374</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>29</v>
@@ -12706,7 +12726,7 @@
         <v>374</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>29</v>
@@ -12758,7 +12778,7 @@
         <v>374</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>29</v>
@@ -12810,7 +12830,7 @@
         <v>374</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>29</v>
@@ -12862,7 +12882,7 @@
         <v>374</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>29</v>
@@ -12914,7 +12934,7 @@
         <v>374</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>29</v>
@@ -12966,7 +12986,7 @@
         <v>374</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L118" s="5" t="s">
         <v>29</v>
@@ -13018,7 +13038,7 @@
         <v>374</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L119" s="5" t="s">
         <v>29</v>
@@ -13070,7 +13090,7 @@
         <v>374</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>29</v>
@@ -13122,7 +13142,7 @@
         <v>374</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>29</v>
@@ -13174,7 +13194,7 @@
         <v>374</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>29</v>
@@ -13226,7 +13246,7 @@
         <v>374</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>29</v>
@@ -13278,7 +13298,7 @@
         <v>374</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>29</v>
@@ -13330,7 +13350,7 @@
         <v>374</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>29</v>
@@ -13382,7 +13402,7 @@
         <v>374</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>29</v>
@@ -13434,7 +13454,7 @@
         <v>374</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>29</v>
@@ -13486,7 +13506,7 @@
         <v>374</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>29</v>
@@ -13538,7 +13558,7 @@
         <v>374</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>29</v>
@@ -13590,7 +13610,7 @@
         <v>374</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>29</v>
@@ -13642,7 +13662,7 @@
         <v>374</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>29</v>
@@ -13694,7 +13714,7 @@
         <v>374</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>29</v>
@@ -13746,7 +13766,7 @@
         <v>374</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>29</v>
@@ -13798,7 +13818,7 @@
         <v>374</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L134" s="5" t="s">
         <v>29</v>
@@ -13850,7 +13870,7 @@
         <v>374</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L135" s="5" t="s">
         <v>29</v>
@@ -13902,7 +13922,7 @@
         <v>374</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L136" s="5" t="s">
         <v>29</v>
@@ -13954,7 +13974,7 @@
         <v>374</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L137" s="5" t="s">
         <v>29</v>
@@ -14006,7 +14026,7 @@
         <v>374</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L138" s="5" t="s">
         <v>29</v>
@@ -14058,7 +14078,7 @@
         <v>374</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L139" s="5" t="s">
         <v>29</v>
@@ -14110,7 +14130,7 @@
         <v>374</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L140" s="5" t="s">
         <v>29</v>
@@ -14162,7 +14182,7 @@
         <v>374</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L141" s="5" t="s">
         <v>29</v>
@@ -14214,7 +14234,7 @@
         <v>374</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L142" s="5" t="s">
         <v>29</v>
@@ -14266,7 +14286,7 @@
         <v>374</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L143" s="5" t="s">
         <v>29</v>
@@ -14318,7 +14338,7 @@
         <v>374</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>29</v>
@@ -14370,7 +14390,7 @@
         <v>374</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L145" s="5" t="s">
         <v>29</v>
@@ -14422,7 +14442,7 @@
         <v>374</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L146" s="5" t="s">
         <v>29</v>
@@ -14474,7 +14494,7 @@
         <v>374</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L147" s="5" t="s">
         <v>29</v>
@@ -14526,7 +14546,7 @@
         <v>374</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L148" s="5" t="s">
         <v>29</v>
@@ -14578,7 +14598,7 @@
         <v>374</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L149" s="5" t="s">
         <v>29</v>
@@ -14630,7 +14650,7 @@
         <v>374</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L150" s="5" t="s">
         <v>29</v>
@@ -14682,7 +14702,7 @@
         <v>374</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L151" s="5" t="s">
         <v>29</v>
@@ -14734,7 +14754,7 @@
         <v>374</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L152" s="5" t="s">
         <v>29</v>
@@ -14786,7 +14806,7 @@
         <v>374</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L153" s="5" t="s">
         <v>29</v>
@@ -14838,7 +14858,7 @@
         <v>374</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>29</v>
@@ -14890,7 +14910,7 @@
         <v>374</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L155" s="5" t="s">
         <v>29</v>
@@ -14942,7 +14962,7 @@
         <v>374</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L156" s="5" t="s">
         <v>29</v>
@@ -14994,7 +15014,7 @@
         <v>374</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>29</v>
@@ -15046,7 +15066,7 @@
         <v>374</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L158" s="5" t="s">
         <v>29</v>
@@ -15098,7 +15118,7 @@
         <v>374</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L159" s="5" t="s">
         <v>29</v>
@@ -15150,7 +15170,7 @@
         <v>374</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>29</v>
@@ -15202,7 +15222,7 @@
         <v>374</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L161" s="5" t="s">
         <v>29</v>
@@ -15254,7 +15274,7 @@
         <v>374</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L162" s="5" t="s">
         <v>29</v>
@@ -15306,7 +15326,7 @@
         <v>374</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L163" s="5" t="s">
         <v>29</v>
@@ -15358,7 +15378,7 @@
         <v>374</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L164" s="5" t="s">
         <v>29</v>
@@ -15410,7 +15430,7 @@
         <v>374</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L165" s="5" t="s">
         <v>29</v>
@@ -15462,7 +15482,7 @@
         <v>374</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L166" s="5" t="s">
         <v>29</v>
@@ -15514,7 +15534,7 @@
         <v>374</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L167" s="5" t="s">
         <v>29</v>
@@ -15566,7 +15586,7 @@
         <v>374</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L168" s="5" t="s">
         <v>29</v>
@@ -15618,7 +15638,7 @@
         <v>374</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L169" s="5" t="s">
         <v>29</v>
@@ -15670,7 +15690,7 @@
         <v>374</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L170" s="5" t="s">
         <v>29</v>
@@ -15722,7 +15742,7 @@
         <v>374</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L171" s="5" t="s">
         <v>29</v>
@@ -15774,7 +15794,7 @@
         <v>374</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>29</v>
@@ -15826,7 +15846,7 @@
         <v>374</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L173" s="5" t="s">
         <v>29</v>
@@ -15878,7 +15898,7 @@
         <v>374</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L174" s="5" t="s">
         <v>29</v>
@@ -15930,7 +15950,7 @@
         <v>374</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L175" s="5" t="s">
         <v>29</v>
@@ -15982,7 +16002,7 @@
         <v>374</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L176" s="5" t="s">
         <v>29</v>
@@ -16034,7 +16054,7 @@
         <v>374</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>29</v>
@@ -16086,7 +16106,7 @@
         <v>374</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L178" s="5" t="s">
         <v>29</v>
@@ -16138,7 +16158,7 @@
         <v>374</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L179" s="5" t="s">
         <v>29</v>
@@ -16190,7 +16210,7 @@
         <v>374</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L180" s="5" t="s">
         <v>29</v>
@@ -16242,7 +16262,7 @@
         <v>374</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L181" s="5" t="s">
         <v>29</v>
@@ -16294,7 +16314,7 @@
         <v>374</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L182" s="5" t="s">
         <v>29</v>
@@ -16346,7 +16366,7 @@
         <v>374</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L183" s="5" t="s">
         <v>29</v>
@@ -16398,7 +16418,7 @@
         <v>374</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L184" s="5" t="s">
         <v>29</v>
@@ -16450,7 +16470,7 @@
         <v>374</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L185" s="5" t="s">
         <v>29</v>
@@ -16502,7 +16522,7 @@
         <v>374</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L186" s="5" t="s">
         <v>29</v>
@@ -16554,7 +16574,7 @@
         <v>374</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L187" s="5" t="s">
         <v>29</v>
@@ -16606,7 +16626,7 @@
         <v>374</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L188" s="5" t="s">
         <v>29</v>
@@ -16663,7 +16683,7 @@
         <v>374</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L189" s="5" t="s">
         <v>29</v>
@@ -16718,7 +16738,7 @@
         <v>374</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L190" s="5" t="s">
         <v>29</v>
@@ -16773,7 +16793,7 @@
         <v>374</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L191" s="5" t="s">
         <v>29</v>
@@ -16828,7 +16848,7 @@
         <v>374</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L192" s="5" t="s">
         <v>29</v>
@@ -16883,7 +16903,7 @@
         <v>374</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L193" s="5" t="s">
         <v>29</v>
@@ -16938,7 +16958,7 @@
         <v>374</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L194" s="5" t="s">
         <v>29</v>
@@ -16993,7 +17013,7 @@
         <v>374</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L195" s="5" t="s">
         <v>29</v>
@@ -17048,7 +17068,7 @@
         <v>374</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L196" s="5" t="s">
         <v>29</v>
@@ -17105,7 +17125,7 @@
         <v>374</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L197" s="5" t="s">
         <v>29</v>
@@ -17160,7 +17180,7 @@
         <v>374</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L198" s="5" t="s">
         <v>29</v>
@@ -17215,7 +17235,7 @@
         <v>374</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L199" s="5" t="s">
         <v>29</v>
@@ -17270,7 +17290,7 @@
         <v>374</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>29</v>
@@ -17325,7 +17345,7 @@
         <v>374</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L201" s="5" t="s">
         <v>29</v>
@@ -17380,7 +17400,7 @@
         <v>374</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L202" s="5" t="s">
         <v>29</v>
@@ -17435,7 +17455,7 @@
         <v>374</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L203" s="5" t="s">
         <v>29</v>
@@ -17490,7 +17510,7 @@
         <v>374</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L204" s="5" t="s">
         <v>29</v>
@@ -17545,7 +17565,7 @@
         <v>374</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L205" s="5" t="s">
         <v>29</v>
@@ -17600,7 +17620,7 @@
         <v>374</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L206" s="5" t="s">
         <v>29</v>
@@ -17655,7 +17675,7 @@
         <v>374</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L207" s="5" t="s">
         <v>29</v>
@@ -17710,7 +17730,7 @@
         <v>374</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L208" s="5" t="s">
         <v>29</v>
@@ -17765,7 +17785,7 @@
         <v>374</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L209" s="5" t="s">
         <v>29</v>
@@ -17820,7 +17840,7 @@
         <v>374</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L210" s="5" t="s">
         <v>29</v>
@@ -17875,7 +17895,7 @@
         <v>374</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L211" s="5" t="s">
         <v>29</v>
@@ -17930,7 +17950,7 @@
         <v>374</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L212" s="5" t="s">
         <v>29</v>
@@ -17985,7 +18005,7 @@
         <v>374</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L213" s="5" t="s">
         <v>29</v>
@@ -18042,7 +18062,7 @@
         <v>374</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L214" s="5" t="s">
         <v>29</v>
@@ -18097,7 +18117,7 @@
         <v>374</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L215" s="5" t="s">
         <v>29</v>
@@ -18152,7 +18172,7 @@
         <v>374</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L216" s="5" t="s">
         <v>29</v>
@@ -18207,7 +18227,7 @@
         <v>374</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L217" s="5" t="s">
         <v>29</v>
@@ -18262,7 +18282,7 @@
         <v>374</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>29</v>
@@ -18317,7 +18337,7 @@
         <v>374</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>29</v>
@@ -18372,7 +18392,7 @@
         <v>374</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>29</v>
@@ -18427,7 +18447,7 @@
         <v>374</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>29</v>
@@ -18470,7 +18490,7 @@
         <v>374</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>29</v>
@@ -18513,7 +18533,7 @@
         <v>374</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>29</v>
@@ -18556,7 +18576,7 @@
         <v>374</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L224" s="5" t="s">
         <v>29</v>
@@ -18599,7 +18619,7 @@
         <v>374</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>29</v>
@@ -18642,7 +18662,7 @@
         <v>374</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L226" s="5" t="s">
         <v>29</v>
@@ -18685,7 +18705,7 @@
         <v>374</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>29</v>
@@ -18728,7 +18748,7 @@
         <v>374</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>29</v>
@@ -18771,7 +18791,7 @@
         <v>374</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>29</v>
@@ -18814,7 +18834,7 @@
         <v>374</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>29</v>
@@ -18857,7 +18877,7 @@
         <v>374</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L231" s="5" t="s">
         <v>29</v>
@@ -18900,7 +18920,7 @@
         <v>374</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L232" s="5" t="s">
         <v>29</v>
@@ -18943,7 +18963,7 @@
         <v>374</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L233" s="5" t="s">
         <v>29</v>
@@ -18986,7 +19006,7 @@
         <v>374</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L234" s="5" t="s">
         <v>29</v>
@@ -19029,7 +19049,7 @@
         <v>374</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L235" s="5" t="s">
         <v>29</v>
@@ -19072,7 +19092,7 @@
         <v>374</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L236" s="5" t="s">
         <v>29</v>
@@ -19115,7 +19135,7 @@
         <v>374</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>29</v>
@@ -19158,7 +19178,7 @@
         <v>374</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L238" s="5" t="s">
         <v>29</v>
@@ -19201,7 +19221,7 @@
         <v>374</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L239" s="5" t="s">
         <v>29</v>
@@ -19244,7 +19264,7 @@
         <v>374</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L240" s="5" t="s">
         <v>29</v>
@@ -19287,7 +19307,7 @@
         <v>374</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L241" s="5" t="s">
         <v>29</v>
@@ -19330,7 +19350,7 @@
         <v>374</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L242" s="5" t="s">
         <v>29</v>
@@ -19372,7 +19392,7 @@
         <v>374</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L243" s="5" t="s">
         <v>29</v>
@@ -19414,7 +19434,7 @@
         <v>374</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L244" s="5" t="s">
         <v>29</v>
@@ -19456,7 +19476,7 @@
         <v>374</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L245" s="5" t="s">
         <v>29</v>
@@ -19498,7 +19518,7 @@
         <v>374</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L246" s="5" t="s">
         <v>29</v>
@@ -19540,7 +19560,7 @@
         <v>374</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L247" s="5" t="s">
         <v>29</v>
@@ -19662,7 +19682,7 @@
         <v>368</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>29</v>
@@ -19709,7 +19729,7 @@
         <v>368</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>29</v>
@@ -19756,7 +19776,7 @@
         <v>368</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>29</v>
@@ -19803,7 +19823,7 @@
         <v>368</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>29</v>
@@ -19850,7 +19870,7 @@
         <v>368</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -19897,7 +19917,7 @@
         <v>368</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>29</v>
@@ -19944,7 +19964,7 @@
         <v>368</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>29</v>
@@ -19991,7 +20011,7 @@
         <v>368</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>29</v>
@@ -20038,7 +20058,7 @@
         <v>368</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>29</v>
@@ -20085,7 +20105,7 @@
         <v>368</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>29</v>
@@ -20132,7 +20152,7 @@
         <v>368</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>29</v>
@@ -20179,7 +20199,7 @@
         <v>368</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>29</v>
@@ -20226,7 +20246,7 @@
         <v>368</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>29</v>
@@ -20273,7 +20293,7 @@
         <v>368</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>29</v>
@@ -20320,7 +20340,7 @@
         <v>368</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
@@ -20367,7 +20387,7 @@
         <v>368</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>29</v>
@@ -20414,7 +20434,7 @@
         <v>368</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>29</v>
@@ -20461,7 +20481,7 @@
         <v>368</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>29</v>
@@ -20508,7 +20528,7 @@
         <v>368</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>29</v>
@@ -20555,7 +20575,7 @@
         <v>368</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>29</v>
@@ -20602,7 +20622,7 @@
         <v>368</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>29</v>
@@ -20649,7 +20669,7 @@
         <v>368</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>29</v>
@@ -20696,7 +20716,7 @@
         <v>368</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>29</v>
@@ -20743,7 +20763,7 @@
         <v>368</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>29</v>
@@ -20790,7 +20810,7 @@
         <v>368</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>29</v>
@@ -20837,7 +20857,7 @@
         <v>368</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>29</v>
@@ -20884,7 +20904,7 @@
         <v>368</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>29</v>
@@ -20931,7 +20951,7 @@
         <v>368</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>29</v>
@@ -20978,7 +20998,7 @@
         <v>368</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>29</v>
@@ -21025,7 +21045,7 @@
         <v>368</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>29</v>
@@ -21072,7 +21092,7 @@
         <v>368</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>29</v>
@@ -21119,7 +21139,7 @@
         <v>368</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>29</v>
@@ -21166,7 +21186,7 @@
         <v>368</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>29</v>
@@ -21213,7 +21233,7 @@
         <v>368</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>29</v>
@@ -21260,7 +21280,7 @@
         <v>368</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>29</v>
@@ -21307,7 +21327,7 @@
         <v>368</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>29</v>
@@ -21354,7 +21374,7 @@
         <v>368</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>29</v>
@@ -21401,7 +21421,7 @@
         <v>368</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>29</v>
@@ -21448,7 +21468,7 @@
         <v>368</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>29</v>
@@ -21495,7 +21515,7 @@
         <v>368</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>29</v>
@@ -21542,7 +21562,7 @@
         <v>368</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>29</v>
@@ -21589,7 +21609,7 @@
         <v>368</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>29</v>
@@ -21636,7 +21656,7 @@
         <v>368</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>29</v>
@@ -21683,7 +21703,7 @@
         <v>368</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>29</v>
@@ -21730,7 +21750,7 @@
         <v>368</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>29</v>
@@ -21777,7 +21797,7 @@
         <v>368</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>29</v>
@@ -21824,7 +21844,7 @@
         <v>368</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>29</v>
@@ -21871,7 +21891,7 @@
         <v>368</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>29</v>
@@ -21918,7 +21938,7 @@
         <v>368</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>29</v>
@@ -21965,7 +21985,7 @@
         <v>368</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>29</v>
@@ -22012,7 +22032,7 @@
         <v>368</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>29</v>
@@ -22059,7 +22079,7 @@
         <v>368</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>29</v>
@@ -22106,7 +22126,7 @@
         <v>368</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>29</v>
@@ -22153,7 +22173,7 @@
         <v>368</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>29</v>
@@ -22200,7 +22220,7 @@
         <v>368</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>29</v>
@@ -22247,7 +22267,7 @@
         <v>368</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>29</v>
@@ -22294,7 +22314,7 @@
         <v>368</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>29</v>
@@ -22341,7 +22361,7 @@
         <v>368</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>29</v>
@@ -22388,7 +22408,7 @@
         <v>368</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>29</v>
@@ -22435,7 +22455,7 @@
         <v>368</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>29</v>
@@ -22482,7 +22502,7 @@
         <v>368</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>29</v>
@@ -22529,7 +22549,7 @@
         <v>368</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>29</v>
@@ -22576,7 +22596,7 @@
         <v>368</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>29</v>
@@ -22623,7 +22643,7 @@
         <v>368</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>29</v>
@@ -22670,7 +22690,7 @@
         <v>368</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>29</v>
@@ -22717,7 +22737,7 @@
         <v>368</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>29</v>
@@ -22764,7 +22784,7 @@
         <v>368</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>29</v>
@@ -22811,7 +22831,7 @@
         <v>368</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>29</v>
@@ -22858,7 +22878,7 @@
         <v>368</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>29</v>
@@ -22905,7 +22925,7 @@
         <v>368</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>29</v>
@@ -22952,7 +22972,7 @@
         <v>368</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>29</v>
@@ -22999,7 +23019,7 @@
         <v>368</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>29</v>
@@ -23046,7 +23066,7 @@
         <v>368</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>29</v>
@@ -23093,7 +23113,7 @@
         <v>368</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>29</v>
@@ -23140,7 +23160,7 @@
         <v>368</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>29</v>
@@ -23187,7 +23207,7 @@
         <v>368</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>29</v>
@@ -23234,7 +23254,7 @@
         <v>368</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>29</v>
@@ -23281,7 +23301,7 @@
         <v>368</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>29</v>
@@ -23328,7 +23348,7 @@
         <v>368</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>29</v>
@@ -23375,7 +23395,7 @@
         <v>368</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>29</v>
@@ -23422,7 +23442,7 @@
         <v>368</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>29</v>
@@ -23469,7 +23489,7 @@
         <v>368</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>29</v>
@@ -23516,7 +23536,7 @@
         <v>368</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>29</v>
@@ -23563,7 +23583,7 @@
         <v>368</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>29</v>
@@ -23610,7 +23630,7 @@
         <v>368</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>29</v>
@@ -23657,7 +23677,7 @@
         <v>368</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>29</v>
@@ -23704,7 +23724,7 @@
         <v>368</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>29</v>
@@ -23751,7 +23771,7 @@
         <v>368</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>29</v>
@@ -23798,7 +23818,7 @@
         <v>368</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>29</v>
@@ -23845,7 +23865,7 @@
         <v>368</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>29</v>
@@ -23892,7 +23912,7 @@
         <v>368</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>29</v>
@@ -23939,7 +23959,7 @@
         <v>368</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>29</v>
@@ -23986,7 +24006,7 @@
         <v>368</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>29</v>
@@ -24033,7 +24053,7 @@
         <v>368</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>29</v>
@@ -24080,7 +24100,7 @@
         <v>368</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>29</v>
@@ -24127,7 +24147,7 @@
         <v>368</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>29</v>
@@ -24174,7 +24194,7 @@
         <v>368</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>29</v>
@@ -24221,7 +24241,7 @@
         <v>368</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>29</v>
@@ -24268,7 +24288,7 @@
         <v>368</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>29</v>
@@ -24315,7 +24335,7 @@
         <v>368</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>29</v>
@@ -24362,7 +24382,7 @@
         <v>368</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>29</v>
@@ -24409,7 +24429,7 @@
         <v>368</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>29</v>
@@ -24456,7 +24476,7 @@
         <v>368</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>29</v>
@@ -24503,7 +24523,7 @@
         <v>368</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>29</v>
@@ -24550,7 +24570,7 @@
         <v>368</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>29</v>
@@ -24597,7 +24617,7 @@
         <v>368</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>29</v>
@@ -24644,7 +24664,7 @@
         <v>368</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>29</v>
@@ -24691,7 +24711,7 @@
         <v>368</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>29</v>
@@ -24738,7 +24758,7 @@
         <v>368</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>29</v>
@@ -24785,7 +24805,7 @@
         <v>368</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>29</v>
@@ -24832,7 +24852,7 @@
         <v>368</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>29</v>
@@ -24879,7 +24899,7 @@
         <v>368</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>29</v>
@@ -24926,7 +24946,7 @@
         <v>368</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>29</v>
@@ -24973,7 +24993,7 @@
         <v>368</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>29</v>
@@ -25020,7 +25040,7 @@
         <v>368</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>29</v>
@@ -25067,7 +25087,7 @@
         <v>368</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>29</v>
@@ -25114,7 +25134,7 @@
         <v>368</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>29</v>
@@ -25161,7 +25181,7 @@
         <v>368</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>29</v>
@@ -25208,7 +25228,7 @@
         <v>368</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>29</v>
@@ -25255,7 +25275,7 @@
         <v>368</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>29</v>
@@ -25302,7 +25322,7 @@
         <v>368</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>29</v>
@@ -25349,7 +25369,7 @@
         <v>368</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>29</v>
@@ -25396,7 +25416,7 @@
         <v>368</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>29</v>
@@ -25443,7 +25463,7 @@
         <v>368</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>29</v>
@@ -25490,7 +25510,7 @@
         <v>368</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>29</v>
@@ -25537,7 +25557,7 @@
         <v>368</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>29</v>
@@ -26286,10 +26306,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="8"/>
@@ -26307,10 +26327,10 @@
         <v>301</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>29</v>
@@ -26334,10 +26354,10 @@
         <v>276</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>29</v>
@@ -26361,10 +26381,10 @@
         <v>308</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
@@ -26388,10 +26408,10 @@
         <v>285</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>29</v>
@@ -26415,10 +26435,10 @@
         <v>336</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
@@ -26442,10 +26462,10 @@
         <v>344</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
@@ -26469,10 +26489,10 @@
         <v>238</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
@@ -26496,10 +26516,10 @@
         <v>259</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>29</v>
@@ -26523,10 +26543,10 @@
         <v>240</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
@@ -26550,10 +26570,10 @@
         <v>408</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
@@ -26577,10 +26597,10 @@
         <v>310</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
@@ -26604,10 +26624,10 @@
         <v>357</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>29</v>
@@ -27784,7 +27804,7 @@
   <dimension ref="A3:P243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27809,10 +27829,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -27823,13 +27849,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>419</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>29</v>
@@ -27850,13 +27882,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>29</v>
@@ -27877,13 +27915,19 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>29</v>
@@ -27904,13 +27948,19 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>29</v>
@@ -27931,13 +27981,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -27958,13 +28014,19 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>29</v>
@@ -27985,13 +28047,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>423</v>
+        <v>425</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" s="1">
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>29</v>
@@ -28012,13 +28080,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>426</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>29</v>
@@ -28039,13 +28113,19 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>29</v>
@@ -28066,13 +28146,19 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>428</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>29</v>
@@ -28093,13 +28179,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>29</v>
@@ -28120,13 +28212,19 @@
         <v>12</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" s="30">
+        <v>30</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>29</v>
@@ -28150,21 +28248,21 @@
         <v>31</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="27" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -28173,7 +28271,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -28182,10 +28280,10 @@
         <v>34</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
@@ -28221,7 +28319,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -28230,10 +28328,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>29</v>
@@ -28269,7 +28367,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -28278,10 +28376,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>29</v>
@@ -28310,7 +28408,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="28" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>31</v>
@@ -28319,7 +28417,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -28328,10 +28426,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>29</v>
@@ -28367,7 +28465,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -28376,10 +28474,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>29</v>
@@ -28415,7 +28513,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -28424,10 +28522,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>29</v>
@@ -28463,7 +28561,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -28472,10 +28570,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>29</v>
@@ -28511,7 +28609,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -28520,10 +28618,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>29</v>
@@ -28552,7 +28650,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>31</v>
@@ -28561,7 +28659,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -28570,10 +28668,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>29</v>
@@ -28609,7 +28707,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -28618,10 +28716,10 @@
         <v>9</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>29</v>
@@ -28657,7 +28755,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -28666,10 +28764,10 @@
         <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>29</v>
@@ -28705,7 +28803,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -28714,10 +28812,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>29</v>
@@ -28753,7 +28851,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -28762,10 +28860,10 @@
         <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>29</v>
@@ -28794,7 +28892,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="25" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>31</v>
@@ -28803,7 +28901,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -28812,10 +28910,10 @@
         <v>3</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>29</v>
@@ -28851,7 +28949,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -28860,10 +28958,10 @@
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>29</v>
@@ -28899,7 +28997,7 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -28908,10 +29006,10 @@
         <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>29</v>
@@ -28940,7 +29038,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="29" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>31</v>
@@ -28949,7 +29047,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -28958,10 +29056,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>29</v>
@@ -28997,7 +29095,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -29006,10 +29104,10 @@
         <v>17</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>29</v>
@@ -29045,7 +29143,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -29054,10 +29152,10 @@
         <v>18</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>29</v>
@@ -29093,7 +29191,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -29102,10 +29200,10 @@
         <v>18</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>29</v>
@@ -29141,7 +29239,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -29150,10 +29248,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>29</v>
@@ -29182,7 +29280,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="25" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>31</v>
@@ -29191,7 +29289,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -29200,10 +29298,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>29</v>
@@ -29239,7 +29337,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E40" s="1">
         <v>6</v>
@@ -29248,10 +29346,10 @@
         <v>22</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>29</v>
@@ -29287,7 +29385,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -29296,10 +29394,10 @@
         <v>23</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>29</v>
@@ -29335,7 +29433,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E42" s="30">
         <v>6</v>
@@ -29344,10 +29442,10 @@
         <v>23</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>29</v>
@@ -29383,7 +29481,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E43" s="30">
         <v>6</v>
@@ -29392,10 +29490,10 @@
         <v>23</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>29</v>
@@ -29424,7 +29522,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>31</v>
@@ -29433,7 +29531,7 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
@@ -29442,10 +29540,10 @@
         <v>3</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>29</v>
@@ -29481,7 +29579,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E45" s="1">
         <v>7</v>
@@ -29490,10 +29588,10 @@
         <v>27</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>29</v>
@@ -29529,7 +29627,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
@@ -29538,10 +29636,10 @@
         <v>28</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>29</v>
@@ -29577,7 +29675,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E47" s="1">
         <v>7</v>
@@ -29586,10 +29684,10 @@
         <v>28</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>29</v>
@@ -29625,7 +29723,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E48" s="1">
         <v>7</v>
@@ -29634,10 +29732,10 @@
         <v>28</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>29</v>
@@ -29666,7 +29764,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="25" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>31</v>
@@ -29675,7 +29773,7 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E49" s="1">
         <v>9</v>
@@ -29684,10 +29782,10 @@
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>29</v>
@@ -29723,7 +29821,7 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E50" s="1">
         <v>9</v>
@@ -29732,10 +29830,10 @@
         <v>31</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>29</v>
@@ -29780,10 +29878,10 @@
         <v>32</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>29</v>
@@ -29819,7 +29917,7 @@
         <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E52" s="1">
         <v>9</v>
@@ -29828,10 +29926,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>29</v>
@@ -29860,7 +29958,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>31</v>
@@ -29869,7 +29967,7 @@
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E53" s="1">
         <v>10</v>
@@ -29878,10 +29976,10 @@
         <v>3</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>29</v>
@@ -29917,7 +30015,7 @@
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -29926,10 +30024,10 @@
         <v>36</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>29</v>
@@ -29965,7 +30063,7 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E55" s="1">
         <v>10</v>
@@ -29974,10 +30072,10 @@
         <v>37</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>29</v>
@@ -30013,7 +30111,7 @@
         <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
@@ -30022,10 +30120,10 @@
         <v>37</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>29</v>
@@ -30054,7 +30152,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="25" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>31</v>
@@ -30063,7 +30161,7 @@
         <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E57" s="1">
         <v>11</v>
@@ -30072,10 +30170,10 @@
         <v>3</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>29</v>
@@ -30111,7 +30209,7 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E58" s="1">
         <v>11</v>
@@ -30120,10 +30218,10 @@
         <v>39</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>29</v>
@@ -30159,7 +30257,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E59" s="1">
         <v>11</v>
@@ -30168,10 +30266,10 @@
         <v>38</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>29</v>
@@ -30207,7 +30305,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E60" s="30">
         <v>11</v>
@@ -30216,10 +30314,10 @@
         <v>38</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>29</v>
@@ -30248,7 +30346,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>31</v>
@@ -30257,7 +30355,7 @@
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E61" s="1">
         <v>8</v>
@@ -30266,10 +30364,10 @@
         <v>3</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>29</v>
@@ -30305,7 +30403,7 @@
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E62" s="1">
         <v>8</v>
@@ -30314,10 +30412,10 @@
         <v>44</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>29</v>
@@ -30353,7 +30451,7 @@
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E63" s="1">
         <v>8</v>
@@ -30362,10 +30460,10 @@
         <v>45</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>29</v>
@@ -30401,7 +30499,7 @@
         <v>47</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E64" s="30">
         <v>8</v>
@@ -30410,10 +30508,10 @@
         <v>45</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>29</v>
@@ -30442,7 +30540,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="25" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>31</v>
@@ -30451,7 +30549,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E65" s="1">
         <v>12</v>
@@ -30460,10 +30558,10 @@
         <v>3</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>29</v>
@@ -30499,7 +30597,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E66" s="1">
         <v>12</v>
@@ -30508,10 +30606,10 @@
         <v>48</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>29</v>
@@ -30547,7 +30645,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E67" s="1">
         <v>12</v>
@@ -30556,10 +30654,10 @@
         <v>49</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>29</v>
@@ -30595,7 +30693,7 @@
         <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E68" s="1">
         <v>12</v>
@@ -30604,10 +30702,10 @@
         <v>49</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>29</v>
@@ -30643,7 +30741,7 @@
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E69" s="1">
         <v>12</v>
@@ -30652,10 +30750,10 @@
         <v>49</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>29</v>
@@ -30691,7 +30789,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E70" s="1">
         <v>12</v>
@@ -30700,10 +30798,10 @@
         <v>49</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>29</v>
